--- a/Problem502/Book1.xlsx
+++ b/Problem502/Book1.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="126">
   <si>
     <t>SUM</t>
   </si>
@@ -189,6 +189,219 @@
   <si>
     <t>Odd(w-1,h)-Odd(w,h-1)</t>
   </si>
+  <si>
+    <t>5/3</t>
+  </si>
+  <si>
+    <t>8/5</t>
+  </si>
+  <si>
+    <t>7/4</t>
+  </si>
+  <si>
+    <t>32/15</t>
+  </si>
+  <si>
+    <t>15/7</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>33/16</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>65/33</t>
+  </si>
+  <si>
+    <t>128/65</t>
+  </si>
+  <si>
+    <t>127/64</t>
+  </si>
+  <si>
+    <t>255/127</t>
+  </si>
+  <si>
+    <t>512/255</t>
+  </si>
+  <si>
+    <t>513/256</t>
+  </si>
+  <si>
+    <t>1025/513</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>H=2</t>
+  </si>
+  <si>
+    <t>H=3</t>
+  </si>
+  <si>
+    <t>31/9</t>
+  </si>
+  <si>
+    <t>105/31</t>
+  </si>
+  <si>
+    <t>67/21</t>
+  </si>
+  <si>
+    <t>1033/335</t>
+  </si>
+  <si>
+    <t>3151/1033</t>
+  </si>
+  <si>
+    <t>9577/3151</t>
+  </si>
+  <si>
+    <t>29007/9577</t>
+  </si>
+  <si>
+    <t>9729/3223</t>
+  </si>
+  <si>
+    <t>11465/3807</t>
+  </si>
+  <si>
+    <t>158613/52739</t>
+  </si>
+  <si>
+    <t>2383247/793065</t>
+  </si>
+  <si>
+    <t>2^4</t>
+  </si>
+  <si>
+    <t>2^8</t>
+  </si>
+  <si>
+    <t>2^64</t>
+  </si>
+  <si>
+    <t>2^256</t>
+  </si>
+  <si>
+    <t>2*3</t>
+  </si>
+  <si>
+    <t>2*5</t>
+  </si>
+  <si>
+    <t>2^2*7</t>
+  </si>
+  <si>
+    <t>2^3*7</t>
+  </si>
+  <si>
+    <t>2^3*3*5</t>
+  </si>
+  <si>
+    <t>2^4*3*11</t>
+  </si>
+  <si>
+    <t>2^5*3*11</t>
+  </si>
+  <si>
+    <t>2^5*5*13</t>
+  </si>
+  <si>
+    <t>2^6*127</t>
+  </si>
+  <si>
+    <t>3^2</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>3*5*7</t>
+  </si>
+  <si>
+    <t>5*67</t>
+  </si>
+  <si>
+    <t>1033</t>
+  </si>
+  <si>
+    <t>23*137</t>
+  </si>
+  <si>
+    <t>61*157</t>
+  </si>
+  <si>
+    <t>3^2*11*293</t>
+  </si>
+  <si>
+    <t>H=4</t>
+  </si>
+  <si>
+    <t>37/10</t>
+  </si>
+  <si>
+    <t>136/37</t>
+  </si>
+  <si>
+    <t>129/34</t>
+  </si>
+  <si>
+    <t>506/129</t>
+  </si>
+  <si>
+    <t>1011/253</t>
+  </si>
+  <si>
+    <t>4064/1011</t>
+  </si>
+  <si>
+    <t>4083/1016</t>
+  </si>
+  <si>
+    <t>16376/4083</t>
+  </si>
+  <si>
+    <t>32785/8188</t>
+  </si>
+  <si>
+    <t>131152/32785</t>
+  </si>
+  <si>
+    <t>131123/32788</t>
+  </si>
+  <si>
+    <t>524374/131123</t>
+  </si>
+  <si>
+    <t>1048607/262187</t>
+  </si>
+  <si>
+    <t>4194208/1048607</t>
+  </si>
+  <si>
+    <t>4194181/1048552</t>
+  </si>
+  <si>
+    <t>16776892/4194181</t>
+  </si>
+  <si>
+    <t>33554149/8388446</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>2^3*5</t>
+  </si>
 </sst>
 </file>
 
@@ -246,7 +459,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -275,6 +488,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -581,8 +797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y75"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="S40" sqref="S40"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F76" sqref="F76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5265,9 +5481,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BC155"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A87" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="L110" sqref="L110"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="Y34" sqref="Y34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5282,10 +5498,17 @@
     <col min="9" max="10" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.140625" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="2"/>
+    <col min="13" max="18" width="9.140625" style="2"/>
+    <col min="19" max="19" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.140625" style="2"/>
+    <col min="23" max="23" width="15" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.140625" style="2" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="13" t="s">
         <v>26</v>
       </c>
@@ -5300,7 +5523,7 @@
       <c r="K1" s="13"/>
       <c r="L1" s="4"/>
     </row>
-    <row r="2" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
@@ -5335,7 +5558,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -5373,7 +5596,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -5408,7 +5631,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -5449,7 +5672,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -5484,7 +5707,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -5519,7 +5742,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -5554,7 +5777,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -5589,7 +5812,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -5624,7 +5847,7 @@
         <v>100000000</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -5659,7 +5882,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -5694,8 +5917,27 @@
         <v>10000000000</v>
       </c>
     </row>
-    <row r="13" spans="1:16" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="P13" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="14"/>
+      <c r="T13" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="U13" s="14"/>
+      <c r="V13" s="14"/>
+      <c r="W13" s="14"/>
+      <c r="X13" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y13" s="14"/>
+      <c r="Z13" s="14"/>
+      <c r="AA13" s="14"/>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1</v>
       </c>
@@ -5732,8 +5974,18 @@
       <c r="M14" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q14" s="2">
+        <v>1</v>
+      </c>
+      <c r="T14" s="3"/>
+      <c r="U14" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>2</v>
       </c>
@@ -5767,8 +6019,36 @@
       <c r="K15" s="2">
         <v>19</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P15" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>3</v>
+      </c>
+      <c r="R15" s="2">
+        <f>Q15/Q14</f>
+        <v>3</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="T15" s="3"/>
+      <c r="U15" s="2">
+        <v>0</v>
+      </c>
+      <c r="V15" s="2" t="e">
+        <f>U15/U14</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y15" s="2">
+        <v>7</v>
+      </c>
+      <c r="Z15" s="2">
+        <f>Y15/Y14</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>3</v>
       </c>
@@ -5802,8 +6082,36 @@
       <c r="K16" s="2">
         <v>226</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P16" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>6</v>
+      </c>
+      <c r="R16" s="2">
+        <f t="shared" ref="R16:R33" si="0">Q16/Q15</f>
+        <v>2</v>
+      </c>
+      <c r="S16" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="T16" s="3"/>
+      <c r="U16" s="2">
+        <v>3</v>
+      </c>
+      <c r="V16" s="2" t="e">
+        <f t="shared" ref="V16:V33" si="1">U16/U15</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y16" s="2">
+        <v>31</v>
+      </c>
+      <c r="Z16" s="2">
+        <f t="shared" ref="Z16:Z33" si="2">Y16/Y15</f>
+        <v>4.4285714285714288</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>4</v>
       </c>
@@ -5837,8 +6145,36 @@
       <c r="K17" s="2">
         <v>2294</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P17" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>10</v>
+      </c>
+      <c r="R17" s="2">
+        <f t="shared" si="0"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="S17" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="T17" s="3"/>
+      <c r="U17" s="2">
+        <v>21</v>
+      </c>
+      <c r="V17" s="2">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="Y17" s="2">
+        <v>117</v>
+      </c>
+      <c r="Z17" s="2">
+        <f t="shared" si="2"/>
+        <v>3.774193548387097</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>5</v>
       </c>
@@ -5872,8 +6208,36 @@
       <c r="K18" s="2">
         <v>23196</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P18" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>16</v>
+      </c>
+      <c r="R18" s="2">
+        <f t="shared" si="0"/>
+        <v>1.6</v>
+      </c>
+      <c r="S18" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="T18" s="3"/>
+      <c r="U18" s="2">
+        <v>89</v>
+      </c>
+      <c r="V18" s="2">
+        <f t="shared" si="1"/>
+        <v>4.2380952380952381</v>
+      </c>
+      <c r="Y18" s="2">
+        <v>439</v>
+      </c>
+      <c r="Z18" s="2">
+        <f t="shared" si="2"/>
+        <v>3.7521367521367521</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>6</v>
       </c>
@@ -5907,8 +6271,36 @@
       <c r="K19" s="2">
         <v>244416</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P19" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>28</v>
+      </c>
+      <c r="R19" s="2">
+        <f t="shared" si="0"/>
+        <v>1.75</v>
+      </c>
+      <c r="S19" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="T19" s="3"/>
+      <c r="U19" s="2">
+        <v>307</v>
+      </c>
+      <c r="V19" s="2">
+        <f t="shared" si="1"/>
+        <v>3.4494382022471912</v>
+      </c>
+      <c r="Y19" s="2">
+        <v>1729</v>
+      </c>
+      <c r="Z19" s="2">
+        <f t="shared" si="2"/>
+        <v>3.9384965831435079</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>7</v>
       </c>
@@ -5942,8 +6334,36 @@
       <c r="K20" s="2">
         <v>2638484</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P20" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>56</v>
+      </c>
+      <c r="R20" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="T20" s="3"/>
+      <c r="U20" s="2">
+        <v>977</v>
+      </c>
+      <c r="V20" s="2">
+        <f t="shared" si="1"/>
+        <v>3.1824104234527688</v>
+      </c>
+      <c r="Y20" s="2">
+        <v>7063</v>
+      </c>
+      <c r="Z20" s="2">
+        <f t="shared" si="2"/>
+        <v>4.0850202429149798</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>8</v>
       </c>
@@ -5977,8 +6397,36 @@
       <c r="K21" s="2">
         <v>28541116</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P21" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>120</v>
+      </c>
+      <c r="R21" s="2">
+        <f t="shared" si="0"/>
+        <v>2.1428571428571428</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="T21" s="3"/>
+      <c r="U21" s="2">
+        <v>3031</v>
+      </c>
+      <c r="V21" s="2">
+        <f t="shared" si="1"/>
+        <v>3.1023541453428862</v>
+      </c>
+      <c r="Y21" s="2">
+        <v>29201</v>
+      </c>
+      <c r="Z21" s="2">
+        <f t="shared" si="2"/>
+        <v>4.1343621690499788</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>9</v>
       </c>
@@ -6012,8 +6460,36 @@
       <c r="K22" s="2">
         <v>306333868</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P22" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>256</v>
+      </c>
+      <c r="R22" s="2">
+        <f t="shared" si="0"/>
+        <v>2.1333333333333333</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="T22" s="3"/>
+      <c r="U22" s="2">
+        <v>9321</v>
+      </c>
+      <c r="V22" s="2">
+        <f t="shared" si="1"/>
+        <v>3.0752226987792808</v>
+      </c>
+      <c r="Y22" s="2">
+        <v>120471</v>
+      </c>
+      <c r="Z22" s="2">
+        <f t="shared" si="2"/>
+        <v>4.1255778911681107</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>10</v>
       </c>
@@ -6047,9 +6523,66 @@
       <c r="K23" s="2">
         <v>3256122372</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P23" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>528</v>
+      </c>
+      <c r="R23" s="2">
+        <f t="shared" si="0"/>
+        <v>2.0625</v>
+      </c>
+      <c r="S23" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="T23" s="3"/>
+      <c r="U23" s="2">
+        <v>28479</v>
+      </c>
+      <c r="V23" s="2">
+        <f t="shared" si="1"/>
+        <v>3.0553588670743483</v>
+      </c>
+      <c r="Y23" s="2">
+        <v>493617</v>
+      </c>
+      <c r="Z23" s="2">
+        <f t="shared" si="2"/>
+        <v>4.0973927335209304</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="P24" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>1056</v>
+      </c>
+      <c r="R24" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="S24" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="T24" s="3"/>
+      <c r="U24" s="2">
+        <v>86505</v>
+      </c>
+      <c r="V24" s="2">
+        <f t="shared" si="1"/>
+        <v>3.0375013167597178</v>
+      </c>
+      <c r="Y24" s="2">
+        <v>2008567</v>
+      </c>
+      <c r="Z24" s="2">
+        <f t="shared" si="2"/>
+        <v>4.0690798736672358</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1</v>
       </c>
@@ -6086,8 +6619,36 @@
       <c r="M25" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P25" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>2080</v>
+      </c>
+      <c r="R25" s="2">
+        <f t="shared" si="0"/>
+        <v>1.9696969696969697</v>
+      </c>
+      <c r="S25" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="T25" s="3"/>
+      <c r="U25" s="2">
+        <v>261615</v>
+      </c>
+      <c r="V25" s="2">
+        <f t="shared" si="1"/>
+        <v>3.0242760534073176</v>
+      </c>
+      <c r="Y25" s="2">
+        <v>8129265</v>
+      </c>
+      <c r="Z25" s="2">
+        <f t="shared" si="2"/>
+        <v>4.0472959079781754</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>2</v>
       </c>
@@ -6121,8 +6682,36 @@
       <c r="K26" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P26" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>4096</v>
+      </c>
+      <c r="R26" s="2">
+        <f t="shared" si="0"/>
+        <v>1.9692307692307693</v>
+      </c>
+      <c r="S26" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="T26" s="3"/>
+      <c r="U26" s="2">
+        <v>788969</v>
+      </c>
+      <c r="V26" s="2">
+        <f t="shared" si="1"/>
+        <v>3.0157636221164688</v>
+      </c>
+      <c r="Y26" s="2">
+        <v>32781847</v>
+      </c>
+      <c r="Z26" s="2">
+        <f t="shared" si="2"/>
+        <v>4.0325720713988291</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>3</v>
       </c>
@@ -6156,8 +6745,36 @@
       <c r="K27" s="2">
         <v>45</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P27" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q27" s="2">
+        <v>8128</v>
+      </c>
+      <c r="R27" s="2">
+        <f t="shared" si="0"/>
+        <v>1.984375</v>
+      </c>
+      <c r="S27" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="T27" s="3"/>
+      <c r="U27" s="2">
+        <v>2375119</v>
+      </c>
+      <c r="V27" s="2">
+        <f t="shared" si="1"/>
+        <v>3.0104085204868634</v>
+      </c>
+      <c r="Y27" s="2">
+        <v>131886705</v>
+      </c>
+      <c r="Z27" s="2">
+        <f t="shared" si="2"/>
+        <v>4.0231627278353166</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>4</v>
       </c>
@@ -6191,8 +6808,32 @@
       <c r="K28" s="2">
         <v>1145</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q28" s="2">
+        <v>16256</v>
+      </c>
+      <c r="R28" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="S28" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="U28" s="2">
+        <v>7141769</v>
+      </c>
+      <c r="V28" s="2">
+        <f t="shared" si="1"/>
+        <v>3.0069099695636301</v>
+      </c>
+      <c r="Y28" s="2">
+        <v>529800951</v>
+      </c>
+      <c r="Z28" s="2">
+        <f t="shared" si="2"/>
+        <v>4.0170914194876577</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>5</v>
       </c>
@@ -6226,8 +6867,32 @@
       <c r="K29" s="2">
         <v>17755</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q29" s="2">
+        <v>32640</v>
+      </c>
+      <c r="R29" s="2">
+        <f t="shared" si="0"/>
+        <v>2.0078740157480315</v>
+      </c>
+      <c r="S29" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="U29" s="2">
+        <v>21457999</v>
+      </c>
+      <c r="V29" s="2">
+        <f t="shared" si="1"/>
+        <v>3.0045775773481331</v>
+      </c>
+      <c r="Y29" s="2">
+        <v>2126056497</v>
+      </c>
+      <c r="Z29" s="2">
+        <f t="shared" si="2"/>
+        <v>4.0129344671561373</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>6</v>
       </c>
@@ -6261,8 +6926,35 @@
       <c r="K30" s="2">
         <v>224143</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P30" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q30" s="2">
+        <v>65536</v>
+      </c>
+      <c r="R30" s="2">
+        <f t="shared" si="0"/>
+        <v>2.0078431372549019</v>
+      </c>
+      <c r="S30" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="U30" s="2">
+        <v>64439145</v>
+      </c>
+      <c r="V30" s="2">
+        <f t="shared" si="1"/>
+        <v>3.0030360706047197</v>
+      </c>
+      <c r="Y30" s="2">
+        <v>8525233303</v>
+      </c>
+      <c r="Z30" s="2">
+        <f t="shared" si="2"/>
+        <v>4.0098808827656471</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>7</v>
       </c>
@@ -6296,8 +6988,32 @@
       <c r="K31" s="2">
         <v>2578547</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q31" s="2">
+        <v>131328</v>
+      </c>
+      <c r="R31" s="2">
+        <f t="shared" si="0"/>
+        <v>2.00390625</v>
+      </c>
+      <c r="S31" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="U31" s="2">
+        <v>193447887</v>
+      </c>
+      <c r="V31" s="2">
+        <f t="shared" si="1"/>
+        <v>3.0020244216461904</v>
+      </c>
+      <c r="Y31" s="2">
+        <v>34165151537</v>
+      </c>
+      <c r="Z31" s="2">
+        <f t="shared" si="2"/>
+        <v>4.007532735201206</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>8</v>
       </c>
@@ -6331,8 +7047,32 @@
       <c r="K32" s="2">
         <v>28412163</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q32" s="2">
+        <v>262656</v>
+      </c>
+      <c r="R32" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="S32" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="U32" s="2">
+        <v>580605705</v>
+      </c>
+      <c r="V32" s="2">
+        <f t="shared" si="1"/>
+        <v>3.0013545973753644</v>
+      </c>
+      <c r="Y32" s="2">
+        <v>136855430903</v>
+      </c>
+      <c r="Z32" s="2">
+        <f t="shared" si="2"/>
+        <v>4.0057024408274327</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>9</v>
       </c>
@@ -6366,8 +7106,32 @@
       <c r="K33" s="2">
         <v>306245643</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q33" s="2">
+        <v>524800</v>
+      </c>
+      <c r="R33" s="2">
+        <f t="shared" si="0"/>
+        <v>1.9980506822612085</v>
+      </c>
+      <c r="S33" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="U33" s="2">
+        <v>1742342799</v>
+      </c>
+      <c r="V33" s="2">
+        <f t="shared" si="1"/>
+        <v>3.000905406191281</v>
+      </c>
+      <c r="Y33" s="2">
+        <v>548008309617</v>
+      </c>
+      <c r="Z33" s="2">
+        <f t="shared" si="2"/>
+        <v>4.0042861726504357</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>10</v>
       </c>
@@ -6402,7 +7166,11 @@
         <v>3257093227</v>
       </c>
     </row>
-    <row r="36" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="T35" s="3"/>
+      <c r="X35" s="3"/>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1</v>
       </c>
@@ -6411,452 +7179,451 @@
         <v>-1</v>
       </c>
       <c r="C36" s="2">
-        <f t="shared" ref="C36:K36" si="0">C14-C25</f>
+        <f t="shared" ref="C36:K36" si="3">C14-C25</f>
         <v>1</v>
       </c>
       <c r="D36" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="E36" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F36" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="G36" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H36" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="I36" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J36" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="K36" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="M36" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>2</v>
       </c>
       <c r="B37" s="2">
-        <f t="shared" ref="B37:K37" si="1">B15-B26</f>
+        <f t="shared" ref="B37:K37" si="4">B15-B26</f>
         <v>-1</v>
       </c>
       <c r="C37" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="D37" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-5</v>
       </c>
       <c r="E37" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="F37" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-9</v>
       </c>
       <c r="G37" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="H37" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-13</v>
       </c>
       <c r="I37" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="J37" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-17</v>
       </c>
       <c r="K37" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>3</v>
       </c>
       <c r="B38" s="2">
-        <f t="shared" ref="B38:K38" si="2">B16-B27</f>
+        <f t="shared" ref="B38:K38" si="5">B16-B27</f>
         <v>-1</v>
       </c>
       <c r="C38" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="D38" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-13</v>
       </c>
       <c r="E38" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="F38" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-41</v>
       </c>
       <c r="G38" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>61</v>
       </c>
       <c r="H38" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-85</v>
       </c>
       <c r="I38" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>113</v>
       </c>
       <c r="J38" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-145</v>
       </c>
       <c r="K38" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>181</v>
       </c>
     </row>
-    <row r="39" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>4</v>
       </c>
       <c r="B39" s="2">
-        <f t="shared" ref="B39:K39" si="3">B17-B28</f>
+        <f t="shared" ref="B39:K39" si="6">B17-B28</f>
         <v>-1</v>
       </c>
       <c r="C39" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="D39" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-23</v>
       </c>
       <c r="E39" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>59</v>
       </c>
       <c r="F39" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-125</v>
       </c>
       <c r="G39" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>225</v>
       </c>
       <c r="H39" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-371</v>
       </c>
       <c r="I39" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>567</v>
       </c>
       <c r="J39" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-825</v>
       </c>
       <c r="K39" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1149</v>
       </c>
     </row>
-    <row r="40" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>5</v>
       </c>
       <c r="B40" s="2">
-        <f t="shared" ref="B40:K40" si="4">B18-B29</f>
+        <f t="shared" ref="B40:K40" si="7">B18-B29</f>
         <v>-1</v>
       </c>
       <c r="C40" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="D40" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-33</v>
       </c>
       <c r="E40" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>97</v>
       </c>
       <c r="F40" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-289</v>
       </c>
       <c r="G40" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>609</v>
       </c>
       <c r="H40" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-1217</v>
       </c>
       <c r="I40" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2113</v>
       </c>
       <c r="J40" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-3521</v>
       </c>
       <c r="K40" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>5441</v>
       </c>
     </row>
-    <row r="41" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>6</v>
       </c>
       <c r="B41" s="2">
-        <f t="shared" ref="B41:K41" si="5">B19-B30</f>
+        <f t="shared" ref="B41:K41" si="8">B19-B30</f>
         <v>-1</v>
       </c>
       <c r="C41" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>-7</v>
       </c>
       <c r="D41" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>-51</v>
       </c>
       <c r="E41" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>91</v>
       </c>
       <c r="F41" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>-573</v>
       </c>
       <c r="G41" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1221</v>
       </c>
       <c r="H41" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>-3263</v>
       </c>
       <c r="I41" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>6103</v>
       </c>
       <c r="J41" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>-12121</v>
       </c>
       <c r="K41" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>20273</v>
       </c>
     </row>
-    <row r="42" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>7</v>
       </c>
       <c r="B42" s="2">
-        <f t="shared" ref="B42:K42" si="6">B20-B31</f>
+        <f t="shared" ref="B42:K42" si="9">B20-B31</f>
         <v>-1</v>
       </c>
       <c r="C42" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-15</v>
       </c>
       <c r="D42" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-105</v>
       </c>
       <c r="E42" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-71</v>
       </c>
       <c r="F42" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-1193</v>
       </c>
       <c r="G42" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1497</v>
       </c>
       <c r="H42" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-8001</v>
       </c>
       <c r="I42" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>13265</v>
       </c>
       <c r="J42" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-36273</v>
       </c>
       <c r="K42" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>59937</v>
       </c>
     </row>
-    <row r="43" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>8</v>
       </c>
       <c r="B43" s="2">
-        <f t="shared" ref="B43:K43" si="7">B21-B32</f>
+        <f t="shared" ref="B43:K43" si="10">B21-B32</f>
         <v>-1</v>
       </c>
       <c r="C43" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>-15</v>
       </c>
       <c r="D43" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>-243</v>
       </c>
       <c r="E43" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>-573</v>
       </c>
       <c r="F43" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>-3141</v>
       </c>
       <c r="G43" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>-1067</v>
       </c>
       <c r="H43" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>-21463</v>
       </c>
       <c r="I43" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>15879</v>
       </c>
       <c r="J43" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>-106505</v>
       </c>
       <c r="K43" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>128953</v>
       </c>
     </row>
-    <row r="44" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>9</v>
       </c>
       <c r="B44" s="2">
-        <f t="shared" ref="B44:K44" si="8">B22-B33</f>
+        <f t="shared" ref="B44:K44" si="11">B22-B33</f>
         <v>-1</v>
       </c>
       <c r="C44" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="D44" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>-529</v>
       </c>
       <c r="E44" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>-1519</v>
       </c>
       <c r="F44" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>-9777</v>
       </c>
       <c r="G44" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>-13775</v>
       </c>
       <c r="H44" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>-71777</v>
       </c>
       <c r="I44" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>-33695</v>
       </c>
       <c r="J44" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>-361633</v>
       </c>
       <c r="K44" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>88225</v>
       </c>
     </row>
-    <row r="45" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>10</v>
       </c>
       <c r="B45" s="2">
-        <f t="shared" ref="B45:K45" si="9">B23-B34</f>
+        <f t="shared" ref="B45:K45" si="12">B23-B34</f>
         <v>-1</v>
       </c>
       <c r="C45" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>33</v>
       </c>
       <c r="D45" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-1067</v>
       </c>
       <c r="E45" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-2293</v>
       </c>
       <c r="F45" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-30765</v>
       </c>
       <c r="G45" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-50035</v>
       </c>
       <c r="H45" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-278231</v>
       </c>
       <c r="I45" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-312457</v>
       </c>
       <c r="J45" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-1511417</v>
       </c>
       <c r="K45" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-970855</v>
       </c>
     </row>
-    <row r="46" spans="1:13" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>1</v>
       </c>
@@ -6894,7 +7661,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>2</v>
       </c>
@@ -6929,7 +7696,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="49" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>3</v>
       </c>
@@ -6964,7 +7731,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="50" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>4</v>
       </c>
@@ -6999,7 +7766,7 @@
         <v>3036</v>
       </c>
     </row>
-    <row r="51" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>5</v>
       </c>
@@ -7034,7 +7801,7 @@
         <v>28404</v>
       </c>
     </row>
-    <row r="52" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>6</v>
       </c>
@@ -7069,7 +7836,7 @@
         <v>261420</v>
       </c>
     </row>
-    <row r="53" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>7</v>
       </c>
@@ -7104,7 +7871,7 @@
         <v>2376036</v>
       </c>
     </row>
-    <row r="54" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>8</v>
       </c>
@@ -7139,7 +7906,7 @@
         <v>21464796</v>
       </c>
     </row>
-    <row r="55" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>9</v>
       </c>
@@ -7174,7 +7941,7 @@
         <v>193463892</v>
       </c>
     </row>
-    <row r="56" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>10</v>
       </c>
@@ -7209,8 +7976,7 @@
         <v>1742299084</v>
       </c>
     </row>
-    <row r="57" spans="1:13" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="58" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>1</v>
       </c>
@@ -7248,7 +8014,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="59" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>2</v>
       </c>
@@ -7283,7 +8049,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="60" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>3</v>
       </c>
@@ -7318,7 +8084,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="61" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>4</v>
       </c>
@@ -7353,7 +8119,7 @@
         <v>3525</v>
       </c>
     </row>
-    <row r="62" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>5</v>
       </c>
@@ -7388,7 +8154,7 @@
         <v>30645</v>
       </c>
     </row>
-    <row r="63" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>6</v>
       </c>
@@ -7423,7 +8189,7 @@
         <v>270021</v>
       </c>
     </row>
-    <row r="64" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>7</v>
       </c>
@@ -7458,7 +8224,7 @@
         <v>2406933</v>
       </c>
     </row>
-    <row r="65" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>8</v>
       </c>
@@ -7493,7 +8259,7 @@
         <v>21581925</v>
       </c>
     </row>
-    <row r="66" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>9</v>
       </c>
@@ -7528,7 +8294,7 @@
         <v>193956597</v>
       </c>
     </row>
-    <row r="67" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>10</v>
       </c>
@@ -7563,8 +8329,27 @@
         <v>1744485317</v>
       </c>
     </row>
-    <row r="68" spans="1:13" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="P68" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q68" s="14"/>
+      <c r="R68" s="14"/>
+      <c r="S68" s="14"/>
+      <c r="T68" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="U68" s="14"/>
+      <c r="V68" s="14"/>
+      <c r="W68" s="14"/>
+      <c r="X68" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y68" s="14"/>
+      <c r="Z68" s="14"/>
+      <c r="AA68" s="14"/>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>1</v>
       </c>
@@ -7601,8 +8386,23 @@
       <c r="M69" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q69" s="2">
+        <v>1</v>
+      </c>
+      <c r="T69" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="U69" s="2">
+        <v>1</v>
+      </c>
+      <c r="X69" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y69" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>2</v>
       </c>
@@ -7636,8 +8436,48 @@
       <c r="K70" s="2">
         <v>55</v>
       </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M70" s="3"/>
+      <c r="P70" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q70" s="2">
+        <v>3</v>
+      </c>
+      <c r="R70" s="2">
+        <f>Q70/Q69</f>
+        <v>3</v>
+      </c>
+      <c r="S70" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="T70" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="U70" s="2">
+        <v>3</v>
+      </c>
+      <c r="V70" s="2">
+        <f>U70/U69</f>
+        <v>3</v>
+      </c>
+      <c r="W70" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="X70" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y70" s="2">
+        <v>10</v>
+      </c>
+      <c r="Z70" s="2">
+        <f>Y70/Y69</f>
+        <v>5</v>
+      </c>
+      <c r="AA70" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>3</v>
       </c>
@@ -7671,8 +8511,48 @@
       <c r="K71" s="2">
         <v>550</v>
       </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M71" s="3"/>
+      <c r="P71" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q71" s="2">
+        <v>6</v>
+      </c>
+      <c r="R71" s="2">
+        <f t="shared" ref="R71:R88" si="13">Q71/Q70</f>
+        <v>2</v>
+      </c>
+      <c r="S71" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="T71" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="U71" s="2">
+        <v>9</v>
+      </c>
+      <c r="V71" s="2">
+        <f t="shared" ref="V71:V88" si="14">U71/U70</f>
+        <v>3</v>
+      </c>
+      <c r="W71" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="X71" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y71" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z71" s="2">
+        <f t="shared" ref="Z71:Z88" si="15">Y71/Y70</f>
+        <v>4</v>
+      </c>
+      <c r="AA71" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>4</v>
       </c>
@@ -7706,8 +8586,46 @@
       <c r="K72" s="2">
         <v>5330</v>
       </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M72" s="3"/>
+      <c r="P72" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q72" s="2">
+        <v>10</v>
+      </c>
+      <c r="R72" s="2">
+        <f t="shared" si="13"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="S72" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="T72" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="U72" s="2">
+        <v>31</v>
+      </c>
+      <c r="V72" s="2">
+        <f t="shared" si="14"/>
+        <v>3.4444444444444446</v>
+      </c>
+      <c r="W72" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="X72" s="3"/>
+      <c r="Y72" s="2">
+        <v>148</v>
+      </c>
+      <c r="Z72" s="2">
+        <f t="shared" si="15"/>
+        <v>3.7</v>
+      </c>
+      <c r="AA72" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>5</v>
       </c>
@@ -7741,8 +8659,46 @@
       <c r="K73" s="2">
         <v>51600</v>
       </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M73" s="3"/>
+      <c r="P73" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q73" s="2">
+        <v>16</v>
+      </c>
+      <c r="R73" s="2">
+        <f t="shared" si="13"/>
+        <v>1.6</v>
+      </c>
+      <c r="S73" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="T73" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="U73" s="2">
+        <v>105</v>
+      </c>
+      <c r="V73" s="2">
+        <f t="shared" si="14"/>
+        <v>3.3870967741935485</v>
+      </c>
+      <c r="W73" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="X73" s="3"/>
+      <c r="Y73" s="2">
+        <v>544</v>
+      </c>
+      <c r="Z73" s="2">
+        <f t="shared" si="15"/>
+        <v>3.6756756756756759</v>
+      </c>
+      <c r="AA73" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>6</v>
       </c>
@@ -7776,8 +8732,46 @@
       <c r="K74" s="2">
         <v>505836</v>
       </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M74" s="3"/>
+      <c r="P74" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q74" s="2">
+        <v>28</v>
+      </c>
+      <c r="R74" s="2">
+        <f t="shared" si="13"/>
+        <v>1.75</v>
+      </c>
+      <c r="S74" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="T74" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="U74" s="2">
+        <v>335</v>
+      </c>
+      <c r="V74" s="2">
+        <f t="shared" si="14"/>
+        <v>3.1904761904761907</v>
+      </c>
+      <c r="W74" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="X74" s="3"/>
+      <c r="Y74" s="2">
+        <v>2064</v>
+      </c>
+      <c r="Z74" s="2">
+        <f t="shared" si="15"/>
+        <v>3.7941176470588234</v>
+      </c>
+      <c r="AA74" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>7</v>
       </c>
@@ -7811,8 +8805,46 @@
       <c r="K75" s="2">
         <v>5014520</v>
       </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M75" s="3"/>
+      <c r="P75" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q75" s="2">
+        <v>56</v>
+      </c>
+      <c r="R75" s="2">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="S75" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="T75" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="U75" s="2">
+        <v>1033</v>
+      </c>
+      <c r="V75" s="2">
+        <f t="shared" si="14"/>
+        <v>3.0835820895522388</v>
+      </c>
+      <c r="W75" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="X75" s="3"/>
+      <c r="Y75" s="2">
+        <v>8096</v>
+      </c>
+      <c r="Z75" s="2">
+        <f t="shared" si="15"/>
+        <v>3.9224806201550386</v>
+      </c>
+      <c r="AA75" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>8</v>
       </c>
@@ -7846,8 +8878,46 @@
       <c r="K76" s="2">
         <v>50005912</v>
       </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M76" s="3"/>
+      <c r="P76" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q76" s="2">
+        <v>120</v>
+      </c>
+      <c r="R76" s="2">
+        <f t="shared" si="13"/>
+        <v>2.1428571428571428</v>
+      </c>
+      <c r="S76" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="T76" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="U76" s="2">
+        <v>3151</v>
+      </c>
+      <c r="V76" s="2">
+        <f t="shared" si="14"/>
+        <v>3.0503388189738625</v>
+      </c>
+      <c r="W76" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="X76" s="3"/>
+      <c r="Y76" s="2">
+        <v>32352</v>
+      </c>
+      <c r="Z76" s="2">
+        <f t="shared" si="15"/>
+        <v>3.9960474308300395</v>
+      </c>
+      <c r="AA76" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>9</v>
       </c>
@@ -7881,8 +8951,46 @@
       <c r="K77" s="2">
         <v>499797760</v>
       </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M77" s="3"/>
+      <c r="P77" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q77" s="2">
+        <v>256</v>
+      </c>
+      <c r="R77" s="2">
+        <f t="shared" si="13"/>
+        <v>2.1333333333333333</v>
+      </c>
+      <c r="S77" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="T77" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="U77" s="2">
+        <v>9577</v>
+      </c>
+      <c r="V77" s="2">
+        <f t="shared" si="14"/>
+        <v>3.0393525864804825</v>
+      </c>
+      <c r="W77" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="X77" s="3"/>
+      <c r="Y77" s="2">
+        <v>130048</v>
+      </c>
+      <c r="Z77" s="2">
+        <f t="shared" si="15"/>
+        <v>4.019782393669634</v>
+      </c>
+      <c r="AA77" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>10</v>
       </c>
@@ -7916,8 +9024,83 @@
       <c r="K78" s="2">
         <v>4998421456</v>
       </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M78" s="3"/>
+      <c r="P78" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q78" s="2">
+        <v>528</v>
+      </c>
+      <c r="R78" s="2">
+        <f t="shared" si="13"/>
+        <v>2.0625</v>
+      </c>
+      <c r="S78" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="T78" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="U78" s="2">
+        <v>29007</v>
+      </c>
+      <c r="V78" s="2">
+        <f t="shared" si="14"/>
+        <v>3.0288190456301556</v>
+      </c>
+      <c r="W78" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="X78" s="3"/>
+      <c r="Y78" s="2">
+        <v>522624</v>
+      </c>
+      <c r="Z78" s="2">
+        <f t="shared" si="15"/>
+        <v>4.018700787401575</v>
+      </c>
+      <c r="AA78" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="P79" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q79" s="2">
+        <v>1056</v>
+      </c>
+      <c r="R79" s="2">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="S79" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="T79" s="3"/>
+      <c r="U79" s="2">
+        <v>87561</v>
+      </c>
+      <c r="V79" s="2">
+        <f t="shared" si="14"/>
+        <v>3.0186161960905986</v>
+      </c>
+      <c r="W79" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="X79" s="3"/>
+      <c r="Y79" s="2">
+        <v>2096128</v>
+      </c>
+      <c r="Z79" s="2">
+        <f t="shared" si="15"/>
+        <v>4.0107763899093802</v>
+      </c>
+      <c r="AA79" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>1</v>
       </c>
@@ -7953,6 +9136,41 @@
       </c>
       <c r="M80" s="2" t="s">
         <v>29</v>
+      </c>
+      <c r="P80" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q80" s="2">
+        <v>2080</v>
+      </c>
+      <c r="R80" s="2">
+        <f t="shared" si="13"/>
+        <v>1.9696969696969697</v>
+      </c>
+      <c r="S80" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="T80" s="3"/>
+      <c r="U80" s="2">
+        <v>263695</v>
+      </c>
+      <c r="V80" s="2">
+        <f t="shared" si="14"/>
+        <v>3.011557656947728</v>
+      </c>
+      <c r="W80" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="X80" s="3"/>
+      <c r="Y80" s="2">
+        <v>8392960</v>
+      </c>
+      <c r="Z80" s="2">
+        <f t="shared" si="15"/>
+        <v>4.004030288226673</v>
+      </c>
+      <c r="AA80" s="3" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="81" spans="1:55" x14ac:dyDescent="0.25">
@@ -7989,6 +9207,41 @@
       <c r="K81" s="2">
         <v>45</v>
       </c>
+      <c r="P81" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q81" s="2">
+        <v>4096</v>
+      </c>
+      <c r="R81" s="2">
+        <f t="shared" si="13"/>
+        <v>1.9692307692307693</v>
+      </c>
+      <c r="S81" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="T81" s="3"/>
+      <c r="U81" s="2">
+        <v>793065</v>
+      </c>
+      <c r="V81" s="2">
+        <f t="shared" si="14"/>
+        <v>3.0075086747947437</v>
+      </c>
+      <c r="W81" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="X81" s="3"/>
+      <c r="Y81" s="2">
+        <v>33574912</v>
+      </c>
+      <c r="Z81" s="2">
+        <f t="shared" si="15"/>
+        <v>4.0003660210462098</v>
+      </c>
+      <c r="AA81" s="3" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="82" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
@@ -8027,6 +9280,41 @@
       <c r="M82" s="2" t="s">
         <v>51</v>
       </c>
+      <c r="P82" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q82" s="2">
+        <v>8128</v>
+      </c>
+      <c r="R82" s="2">
+        <f t="shared" si="13"/>
+        <v>1.984375</v>
+      </c>
+      <c r="S82" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="T82" s="3"/>
+      <c r="U82" s="2">
+        <v>2383247</v>
+      </c>
+      <c r="V82" s="2">
+        <f t="shared" si="14"/>
+        <v>3.0051092911678108</v>
+      </c>
+      <c r="W82" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="X82" s="3"/>
+      <c r="Y82" s="2">
+        <v>134269952</v>
+      </c>
+      <c r="Z82" s="2">
+        <f t="shared" si="15"/>
+        <v>3.9991155300719776</v>
+      </c>
+      <c r="AA82" s="3" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="83" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
@@ -8062,6 +9350,34 @@
       <c r="K83" s="2">
         <v>4670</v>
       </c>
+      <c r="Q83" s="2">
+        <v>16256</v>
+      </c>
+      <c r="R83" s="2">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="S83" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="U83" s="2">
+        <v>7158025</v>
+      </c>
+      <c r="V83" s="2">
+        <f t="shared" si="14"/>
+        <v>3.0034759301071188</v>
+      </c>
+      <c r="W83" s="3"/>
+      <c r="Y83" s="2">
+        <v>536958976</v>
+      </c>
+      <c r="Z83" s="2">
+        <f t="shared" si="15"/>
+        <v>3.9991000816027698</v>
+      </c>
+      <c r="AA83" s="3" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="84" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
@@ -8097,6 +9413,34 @@
       <c r="K84" s="2">
         <v>48400</v>
       </c>
+      <c r="Q84" s="2">
+        <v>32640</v>
+      </c>
+      <c r="R84" s="2">
+        <f t="shared" si="13"/>
+        <v>2.0078740157480315</v>
+      </c>
+      <c r="S84" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="U84" s="2">
+        <v>21490639</v>
+      </c>
+      <c r="V84" s="2">
+        <f t="shared" si="14"/>
+        <v>3.0023140461230575</v>
+      </c>
+      <c r="W84" s="3"/>
+      <c r="Y84" s="2">
+        <v>2147547136</v>
+      </c>
+      <c r="Z84" s="2">
+        <f t="shared" si="15"/>
+        <v>3.9994622158993391</v>
+      </c>
+      <c r="AA84" s="3" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="85" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
@@ -8132,6 +9476,37 @@
       <c r="K85" s="2">
         <v>494164</v>
       </c>
+      <c r="P85" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q85" s="2">
+        <v>65536</v>
+      </c>
+      <c r="R85" s="2">
+        <f t="shared" si="13"/>
+        <v>2.0078431372549019</v>
+      </c>
+      <c r="S85" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="U85" s="2">
+        <v>64504681</v>
+      </c>
+      <c r="V85" s="2">
+        <f t="shared" si="14"/>
+        <v>3.0015245707677654</v>
+      </c>
+      <c r="W85" s="3"/>
+      <c r="Y85" s="2">
+        <v>8589737984</v>
+      </c>
+      <c r="Z85" s="2">
+        <f t="shared" si="15"/>
+        <v>3.9997901978529611</v>
+      </c>
+      <c r="AA85" s="3" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="86" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
@@ -8167,6 +9542,34 @@
       <c r="K86" s="2">
         <v>4985480</v>
       </c>
+      <c r="Q86" s="2">
+        <v>131328</v>
+      </c>
+      <c r="R86" s="2">
+        <f t="shared" si="13"/>
+        <v>2.00390625</v>
+      </c>
+      <c r="S86" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="U86" s="2">
+        <v>193579215</v>
+      </c>
+      <c r="V86" s="2">
+        <f t="shared" si="14"/>
+        <v>3.0010103452802133</v>
+      </c>
+      <c r="W86" s="3"/>
+      <c r="Y86" s="2">
+        <v>34358730752</v>
+      </c>
+      <c r="Z86" s="2">
+        <f t="shared" si="15"/>
+        <v>3.9999742502040911</v>
+      </c>
+      <c r="AA86" s="3" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="87" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
@@ -8202,6 +9605,34 @@
       <c r="K87" s="2">
         <v>49994088</v>
       </c>
+      <c r="Q87" s="2">
+        <v>262656</v>
+      </c>
+      <c r="R87" s="2">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="S87" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="U87" s="2">
+        <v>580868361</v>
+      </c>
+      <c r="V87" s="2">
+        <f t="shared" si="14"/>
+        <v>3.0006752584465226</v>
+      </c>
+      <c r="W87" s="3"/>
+      <c r="Y87" s="2">
+        <v>137436299264</v>
+      </c>
+      <c r="Z87" s="2">
+        <f t="shared" si="15"/>
+        <v>4.0000400554959361</v>
+      </c>
+      <c r="AA87" s="3" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="88" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
@@ -8237,6 +9668,34 @@
       <c r="K88" s="2">
         <v>500202240</v>
       </c>
+      <c r="Q88" s="2">
+        <v>524800</v>
+      </c>
+      <c r="R88" s="2">
+        <f t="shared" si="13"/>
+        <v>1.9980506822612085</v>
+      </c>
+      <c r="S88" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="U88" s="2">
+        <v>1742867599</v>
+      </c>
+      <c r="V88" s="2">
+        <f t="shared" si="14"/>
+        <v>3.0004519371644687</v>
+      </c>
+      <c r="W88" s="3"/>
+      <c r="Y88" s="2">
+        <v>549751177216</v>
+      </c>
+      <c r="Z88" s="2">
+        <f t="shared" si="15"/>
+        <v>4.0000435122309899</v>
+      </c>
+      <c r="AA88" s="3" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="89" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
@@ -8282,39 +9741,39 @@
         <v>-0.5</v>
       </c>
       <c r="C91" s="2">
-        <f t="shared" ref="C91:K91" si="10">C3/2-C80</f>
+        <f t="shared" ref="C91:K91" si="16">C3/2-C80</f>
         <v>0</v>
       </c>
       <c r="D91" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>-0.5</v>
       </c>
       <c r="E91" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="F91" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>-0.5</v>
       </c>
       <c r="G91" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="H91" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>-0.5</v>
       </c>
       <c r="I91" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J91" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>-0.5</v>
       </c>
       <c r="K91" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M91" s="2" t="s">
@@ -8326,43 +9785,43 @@
         <v>2</v>
       </c>
       <c r="B92" s="2">
-        <f t="shared" ref="B92:K92" si="11">B4/2-B81</f>
+        <f t="shared" ref="B92:K92" si="17">B4/2-B81</f>
         <v>-0.5</v>
       </c>
       <c r="C92" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="D92" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>-1.5</v>
       </c>
       <c r="E92" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="F92" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>-2.5</v>
       </c>
       <c r="G92" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="H92" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>-3.5</v>
       </c>
       <c r="I92" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="J92" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>-4.5</v>
       </c>
       <c r="K92" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>5</v>
       </c>
       <c r="P92" s="2">
@@ -8370,35 +9829,35 @@
         <v>0</v>
       </c>
       <c r="Q92" s="2">
-        <f t="shared" ref="Q92:X92" si="12">C92-C91</f>
+        <f t="shared" ref="Q92:X92" si="18">C92-C91</f>
         <v>1</v>
       </c>
       <c r="R92" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>-1</v>
       </c>
       <c r="S92" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="T92" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>-2</v>
       </c>
       <c r="U92" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>3</v>
       </c>
       <c r="V92" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>-3</v>
       </c>
       <c r="W92" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>4</v>
       </c>
       <c r="X92" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>-4</v>
       </c>
       <c r="Y92" s="2">
@@ -8411,83 +9870,83 @@
         <v>3</v>
       </c>
       <c r="B93" s="2">
-        <f t="shared" ref="B93:K93" si="13">B5/2-B82</f>
+        <f t="shared" ref="B93:K93" si="19">B5/2-B82</f>
         <v>-0.5</v>
       </c>
       <c r="C93" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>2</v>
       </c>
       <c r="D93" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>-4.5</v>
       </c>
       <c r="E93" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>8</v>
       </c>
       <c r="F93" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>-12.5</v>
       </c>
       <c r="G93" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>18</v>
       </c>
       <c r="H93" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>-24.5</v>
       </c>
       <c r="I93" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>32</v>
       </c>
       <c r="J93" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>-40.5</v>
       </c>
       <c r="K93" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>50</v>
       </c>
       <c r="P93" s="2">
-        <f t="shared" ref="P93:P100" si="14">B93-B92</f>
+        <f t="shared" ref="P93:P100" si="20">B93-B92</f>
         <v>0</v>
       </c>
       <c r="Q93" s="2">
-        <f t="shared" ref="Q93:Q100" si="15">C93-C92</f>
+        <f t="shared" ref="Q93:Q100" si="21">C93-C92</f>
         <v>1</v>
       </c>
       <c r="R93" s="2">
-        <f t="shared" ref="R93:R100" si="16">D93-D92</f>
+        <f t="shared" ref="R93:R100" si="22">D93-D92</f>
         <v>-3</v>
       </c>
       <c r="S93" s="2">
-        <f t="shared" ref="S93:S100" si="17">E93-E92</f>
+        <f t="shared" ref="S93:S100" si="23">E93-E92</f>
         <v>6</v>
       </c>
       <c r="T93" s="2">
-        <f t="shared" ref="T93:T100" si="18">F93-F92</f>
+        <f t="shared" ref="T93:T100" si="24">F93-F92</f>
         <v>-10</v>
       </c>
       <c r="U93" s="2">
-        <f t="shared" ref="U93:U100" si="19">G93-G92</f>
+        <f t="shared" ref="U93:U100" si="25">G93-G92</f>
         <v>15</v>
       </c>
       <c r="V93" s="2">
-        <f t="shared" ref="V93:V100" si="20">H93-H92</f>
+        <f t="shared" ref="V93:V100" si="26">H93-H92</f>
         <v>-21</v>
       </c>
       <c r="W93" s="2">
-        <f t="shared" ref="W93:W100" si="21">I93-I92</f>
+        <f t="shared" ref="W93:W100" si="27">I93-I92</f>
         <v>28</v>
       </c>
       <c r="X93" s="2">
-        <f t="shared" ref="X93:X100" si="22">J93-J92</f>
+        <f t="shared" ref="X93:X100" si="28">J93-J92</f>
         <v>-36</v>
       </c>
       <c r="Y93" s="2">
-        <f t="shared" ref="Y93:Y100" si="23">K93-K92</f>
+        <f t="shared" ref="Y93:Y100" si="29">K93-K92</f>
         <v>45</v>
       </c>
       <c r="AA93" s="2">
@@ -8495,35 +9954,35 @@
         <v>0</v>
       </c>
       <c r="AB93" s="2">
-        <f t="shared" ref="AB93:AI93" si="24">R93-R92</f>
+        <f t="shared" ref="AB93:AI93" si="30">R93-R92</f>
         <v>-2</v>
       </c>
       <c r="AC93" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>4</v>
       </c>
       <c r="AD93" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>-8</v>
       </c>
       <c r="AE93" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>12</v>
       </c>
       <c r="AF93" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>-18</v>
       </c>
       <c r="AG93" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>24</v>
       </c>
       <c r="AH93" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>-32</v>
       </c>
       <c r="AI93" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>40</v>
       </c>
     </row>
@@ -8532,119 +9991,119 @@
         <v>4</v>
       </c>
       <c r="B94" s="2">
-        <f t="shared" ref="B94:K94" si="25">B6/2-B83</f>
+        <f t="shared" ref="B94:K94" si="31">B6/2-B83</f>
         <v>-0.5</v>
       </c>
       <c r="C94" s="2">
+        <f t="shared" si="31"/>
+        <v>2</v>
+      </c>
+      <c r="D94" s="2">
+        <f t="shared" si="31"/>
+        <v>-9.5</v>
+      </c>
+      <c r="E94" s="2">
+        <f t="shared" si="31"/>
+        <v>20</v>
+      </c>
+      <c r="F94" s="2">
+        <f t="shared" si="31"/>
+        <v>-42.5</v>
+      </c>
+      <c r="G94" s="2">
+        <f t="shared" si="31"/>
+        <v>70</v>
+      </c>
+      <c r="H94" s="2">
+        <f t="shared" si="31"/>
+        <v>-115.5</v>
+      </c>
+      <c r="I94" s="2">
+        <f t="shared" si="31"/>
+        <v>168</v>
+      </c>
+      <c r="J94" s="2">
+        <f t="shared" si="31"/>
+        <v>-244.5</v>
+      </c>
+      <c r="K94" s="2">
+        <f t="shared" si="31"/>
+        <v>330</v>
+      </c>
+      <c r="P94" s="2">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Q94" s="2">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="R94" s="2">
+        <f t="shared" si="22"/>
+        <v>-5</v>
+      </c>
+      <c r="S94" s="2">
+        <f t="shared" si="23"/>
+        <v>12</v>
+      </c>
+      <c r="T94" s="2">
+        <f t="shared" si="24"/>
+        <v>-30</v>
+      </c>
+      <c r="U94" s="2">
         <f t="shared" si="25"/>
-        <v>2</v>
-      </c>
-      <c r="D94" s="2">
-        <f t="shared" si="25"/>
-        <v>-9.5</v>
-      </c>
-      <c r="E94" s="2">
-        <f t="shared" si="25"/>
-        <v>20</v>
-      </c>
-      <c r="F94" s="2">
-        <f t="shared" si="25"/>
-        <v>-42.5</v>
-      </c>
-      <c r="G94" s="2">
-        <f t="shared" si="25"/>
-        <v>70</v>
-      </c>
-      <c r="H94" s="2">
-        <f t="shared" si="25"/>
-        <v>-115.5</v>
-      </c>
-      <c r="I94" s="2">
-        <f t="shared" si="25"/>
-        <v>168</v>
-      </c>
-      <c r="J94" s="2">
-        <f t="shared" si="25"/>
-        <v>-244.5</v>
-      </c>
-      <c r="K94" s="2">
-        <f t="shared" si="25"/>
-        <v>330</v>
-      </c>
-      <c r="P94" s="2">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="Q94" s="2">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="R94" s="2">
-        <f t="shared" si="16"/>
-        <v>-5</v>
-      </c>
-      <c r="S94" s="2">
-        <f t="shared" si="17"/>
-        <v>12</v>
-      </c>
-      <c r="T94" s="2">
-        <f t="shared" si="18"/>
-        <v>-30</v>
-      </c>
-      <c r="U94" s="2">
-        <f t="shared" si="19"/>
         <v>52</v>
       </c>
       <c r="V94" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>-91</v>
       </c>
       <c r="W94" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>136</v>
       </c>
       <c r="X94" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>-204</v>
       </c>
       <c r="Y94" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>280</v>
       </c>
       <c r="AA94" s="2">
-        <f t="shared" ref="AA94:AA100" si="26">Q94-Q93</f>
+        <f t="shared" ref="AA94:AA100" si="32">Q94-Q93</f>
         <v>-1</v>
       </c>
       <c r="AB94" s="2">
-        <f t="shared" ref="AB94:AB100" si="27">R94-R93</f>
+        <f t="shared" ref="AB94:AB100" si="33">R94-R93</f>
         <v>-2</v>
       </c>
       <c r="AC94" s="2">
-        <f t="shared" ref="AC94:AC100" si="28">S94-S93</f>
+        <f t="shared" ref="AC94:AC100" si="34">S94-S93</f>
         <v>6</v>
       </c>
       <c r="AD94" s="2">
-        <f t="shared" ref="AD94:AD100" si="29">T94-T93</f>
+        <f t="shared" ref="AD94:AD100" si="35">T94-T93</f>
         <v>-20</v>
       </c>
       <c r="AE94" s="2">
-        <f t="shared" ref="AE94:AE100" si="30">U94-U93</f>
+        <f t="shared" ref="AE94:AE100" si="36">U94-U93</f>
         <v>37</v>
       </c>
       <c r="AF94" s="2">
-        <f t="shared" ref="AF94:AF100" si="31">V94-V93</f>
+        <f t="shared" ref="AF94:AF100" si="37">V94-V93</f>
         <v>-70</v>
       </c>
       <c r="AG94" s="2">
-        <f t="shared" ref="AG94:AG100" si="32">W94-W93</f>
+        <f t="shared" ref="AG94:AG100" si="38">W94-W93</f>
         <v>108</v>
       </c>
       <c r="AH94" s="2">
-        <f t="shared" ref="AH94:AH100" si="33">X94-X93</f>
+        <f t="shared" ref="AH94:AH100" si="39">X94-X93</f>
         <v>-168</v>
       </c>
       <c r="AI94" s="2">
-        <f t="shared" ref="AI94:AI100" si="34">Y94-Y93</f>
+        <f t="shared" ref="AI94:AI100" si="40">Y94-Y93</f>
         <v>235</v>
       </c>
       <c r="AK94" s="2">
@@ -8652,35 +10111,35 @@
         <v>-1</v>
       </c>
       <c r="AL94" s="2">
-        <f t="shared" ref="AL94:AS94" si="35">AB94-AB93</f>
+        <f t="shared" ref="AL94:AS94" si="41">AB94-AB93</f>
         <v>0</v>
       </c>
       <c r="AM94" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>2</v>
       </c>
       <c r="AN94" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>-12</v>
       </c>
       <c r="AO94" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>25</v>
       </c>
       <c r="AP94" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>-52</v>
       </c>
       <c r="AQ94" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>84</v>
       </c>
       <c r="AR94" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>-136</v>
       </c>
       <c r="AS94" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>195</v>
       </c>
     </row>
@@ -8689,155 +10148,155 @@
         <v>5</v>
       </c>
       <c r="B95" s="2">
-        <f t="shared" ref="B95:K95" si="36">B7/2-B84</f>
+        <f t="shared" ref="B95:K95" si="42">B7/2-B84</f>
         <v>-0.5</v>
       </c>
       <c r="C95" s="2">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="D95" s="2">
+        <f t="shared" si="42"/>
+        <v>-16.5</v>
+      </c>
+      <c r="E95" s="2">
+        <f t="shared" si="42"/>
+        <v>32</v>
+      </c>
+      <c r="F95" s="2">
+        <f t="shared" si="42"/>
+        <v>-112.5</v>
+      </c>
+      <c r="G95" s="2">
+        <f t="shared" si="42"/>
+        <v>192</v>
+      </c>
+      <c r="H95" s="2">
+        <f t="shared" si="42"/>
+        <v>-416.5</v>
+      </c>
+      <c r="I95" s="2">
+        <f t="shared" si="42"/>
+        <v>640</v>
+      </c>
+      <c r="J95" s="2">
+        <f t="shared" si="42"/>
+        <v>-1120.5</v>
+      </c>
+      <c r="K95" s="2">
+        <f t="shared" si="42"/>
+        <v>1600</v>
+      </c>
+      <c r="P95" s="2">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Q95" s="2">
+        <f t="shared" si="21"/>
+        <v>-2</v>
+      </c>
+      <c r="R95" s="2">
+        <f t="shared" si="22"/>
+        <v>-7</v>
+      </c>
+      <c r="S95" s="2">
+        <f t="shared" si="23"/>
+        <v>12</v>
+      </c>
+      <c r="T95" s="2">
+        <f t="shared" si="24"/>
+        <v>-70</v>
+      </c>
+      <c r="U95" s="2">
+        <f t="shared" si="25"/>
+        <v>122</v>
+      </c>
+      <c r="V95" s="2">
+        <f t="shared" si="26"/>
+        <v>-301</v>
+      </c>
+      <c r="W95" s="2">
+        <f t="shared" si="27"/>
+        <v>472</v>
+      </c>
+      <c r="X95" s="2">
+        <f t="shared" si="28"/>
+        <v>-876</v>
+      </c>
+      <c r="Y95" s="2">
+        <f t="shared" si="29"/>
+        <v>1270</v>
+      </c>
+      <c r="AA95" s="2">
+        <f t="shared" si="32"/>
+        <v>-2</v>
+      </c>
+      <c r="AB95" s="2">
+        <f t="shared" si="33"/>
+        <v>-2</v>
+      </c>
+      <c r="AC95" s="2">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="AD95" s="2">
+        <f t="shared" si="35"/>
+        <v>-40</v>
+      </c>
+      <c r="AE95" s="2">
         <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="D95" s="2">
-        <f t="shared" si="36"/>
-        <v>-16.5</v>
-      </c>
-      <c r="E95" s="2">
-        <f t="shared" si="36"/>
-        <v>32</v>
-      </c>
-      <c r="F95" s="2">
-        <f t="shared" si="36"/>
-        <v>-112.5</v>
-      </c>
-      <c r="G95" s="2">
-        <f t="shared" si="36"/>
-        <v>192</v>
-      </c>
-      <c r="H95" s="2">
-        <f t="shared" si="36"/>
-        <v>-416.5</v>
-      </c>
-      <c r="I95" s="2">
-        <f t="shared" si="36"/>
-        <v>640</v>
-      </c>
-      <c r="J95" s="2">
-        <f t="shared" si="36"/>
-        <v>-1120.5</v>
-      </c>
-      <c r="K95" s="2">
-        <f t="shared" si="36"/>
-        <v>1600</v>
-      </c>
-      <c r="P95" s="2">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="Q95" s="2">
-        <f t="shared" si="15"/>
-        <v>-2</v>
-      </c>
-      <c r="R95" s="2">
-        <f t="shared" si="16"/>
-        <v>-7</v>
-      </c>
-      <c r="S95" s="2">
-        <f t="shared" si="17"/>
-        <v>12</v>
-      </c>
-      <c r="T95" s="2">
-        <f t="shared" si="18"/>
-        <v>-70</v>
-      </c>
-      <c r="U95" s="2">
-        <f t="shared" si="19"/>
-        <v>122</v>
-      </c>
-      <c r="V95" s="2">
-        <f t="shared" si="20"/>
-        <v>-301</v>
-      </c>
-      <c r="W95" s="2">
-        <f t="shared" si="21"/>
-        <v>472</v>
-      </c>
-      <c r="X95" s="2">
-        <f t="shared" si="22"/>
-        <v>-876</v>
-      </c>
-      <c r="Y95" s="2">
-        <f t="shared" si="23"/>
-        <v>1270</v>
-      </c>
-      <c r="AA95" s="2">
-        <f t="shared" si="26"/>
-        <v>-2</v>
-      </c>
-      <c r="AB95" s="2">
-        <f t="shared" si="27"/>
-        <v>-2</v>
-      </c>
-      <c r="AC95" s="2">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="AD95" s="2">
-        <f t="shared" si="29"/>
-        <v>-40</v>
-      </c>
-      <c r="AE95" s="2">
-        <f t="shared" si="30"/>
         <v>70</v>
       </c>
       <c r="AF95" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>-210</v>
       </c>
       <c r="AG95" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>336</v>
       </c>
       <c r="AH95" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>-672</v>
       </c>
       <c r="AI95" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>990</v>
       </c>
       <c r="AK95" s="2">
-        <f t="shared" ref="AK95:AK100" si="37">AA95-AA94</f>
+        <f t="shared" ref="AK95:AK100" si="43">AA95-AA94</f>
         <v>-1</v>
       </c>
       <c r="AL95" s="2">
-        <f t="shared" ref="AL95:AL100" si="38">AB95-AB94</f>
+        <f t="shared" ref="AL95:AL100" si="44">AB95-AB94</f>
         <v>0</v>
       </c>
       <c r="AM95" s="2">
-        <f t="shared" ref="AM95:AM100" si="39">AC95-AC94</f>
+        <f t="shared" ref="AM95:AM100" si="45">AC95-AC94</f>
         <v>-6</v>
       </c>
       <c r="AN95" s="2">
-        <f t="shared" ref="AN95:AN100" si="40">AD95-AD94</f>
+        <f t="shared" ref="AN95:AN100" si="46">AD95-AD94</f>
         <v>-20</v>
       </c>
       <c r="AO95" s="2">
-        <f t="shared" ref="AO95:AO100" si="41">AE95-AE94</f>
+        <f t="shared" ref="AO95:AO100" si="47">AE95-AE94</f>
         <v>33</v>
       </c>
       <c r="AP95" s="2">
-        <f t="shared" ref="AP95:AP100" si="42">AF95-AF94</f>
+        <f t="shared" ref="AP95:AP100" si="48">AF95-AF94</f>
         <v>-140</v>
       </c>
       <c r="AQ95" s="2">
-        <f t="shared" ref="AQ95:AQ100" si="43">AG95-AG94</f>
+        <f t="shared" ref="AQ95:AQ100" si="49">AG95-AG94</f>
         <v>228</v>
       </c>
       <c r="AR95" s="2">
-        <f t="shared" ref="AR95:AR100" si="44">AH95-AH94</f>
+        <f t="shared" ref="AR95:AR100" si="50">AH95-AH94</f>
         <v>-504</v>
       </c>
       <c r="AS95" s="2">
-        <f t="shared" ref="AS95:AS100" si="45">AI95-AI94</f>
+        <f t="shared" ref="AS95:AS100" si="51">AI95-AI94</f>
         <v>755</v>
       </c>
       <c r="AU95" s="2">
@@ -8845,31 +10304,31 @@
         <v>0</v>
       </c>
       <c r="AV95" s="2">
-        <f t="shared" ref="AV95:BB95" si="46">AL95-AL94</f>
+        <f t="shared" ref="AV95:BB95" si="52">AL95-AL94</f>
         <v>0</v>
       </c>
       <c r="AW95" s="2">
-        <f t="shared" si="46"/>
+        <f t="shared" si="52"/>
         <v>-8</v>
       </c>
       <c r="AX95" s="2">
-        <f t="shared" si="46"/>
+        <f t="shared" si="52"/>
         <v>-8</v>
       </c>
       <c r="AY95" s="2">
-        <f t="shared" si="46"/>
+        <f t="shared" si="52"/>
         <v>8</v>
       </c>
       <c r="AZ95" s="2">
-        <f t="shared" si="46"/>
+        <f t="shared" si="52"/>
         <v>-88</v>
       </c>
       <c r="BA95" s="2">
-        <f t="shared" si="46"/>
+        <f t="shared" si="52"/>
         <v>144</v>
       </c>
       <c r="BB95" s="2">
-        <f t="shared" si="46"/>
+        <f t="shared" si="52"/>
         <v>-368</v>
       </c>
       <c r="BC95" s="2">
@@ -8882,191 +10341,191 @@
         <v>6</v>
       </c>
       <c r="B96" s="2">
-        <f t="shared" ref="B96:K96" si="47">B8/2-B85</f>
+        <f t="shared" ref="B96:K96" si="53">B8/2-B85</f>
         <v>-0.5</v>
       </c>
       <c r="C96" s="2">
+        <f t="shared" si="53"/>
+        <v>-4</v>
+      </c>
+      <c r="D96" s="2">
+        <f t="shared" si="53"/>
+        <v>-29.5</v>
+      </c>
+      <c r="E96" s="2">
+        <f t="shared" si="53"/>
+        <v>16</v>
+      </c>
+      <c r="F96" s="2">
+        <f t="shared" si="53"/>
+        <v>-270.5</v>
+      </c>
+      <c r="G96" s="2">
+        <f t="shared" si="53"/>
+        <v>340</v>
+      </c>
+      <c r="H96" s="2">
+        <f t="shared" si="53"/>
+        <v>-1291.5</v>
+      </c>
+      <c r="I96" s="2">
+        <f t="shared" si="53"/>
+        <v>1760</v>
+      </c>
+      <c r="J96" s="2">
+        <f t="shared" si="53"/>
+        <v>-4300.5</v>
+      </c>
+      <c r="K96" s="2">
+        <f t="shared" si="53"/>
+        <v>5836</v>
+      </c>
+      <c r="P96" s="2">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Q96" s="2">
+        <f t="shared" si="21"/>
+        <v>-4</v>
+      </c>
+      <c r="R96" s="2">
+        <f t="shared" si="22"/>
+        <v>-13</v>
+      </c>
+      <c r="S96" s="2">
+        <f t="shared" si="23"/>
+        <v>-16</v>
+      </c>
+      <c r="T96" s="2">
+        <f t="shared" si="24"/>
+        <v>-158</v>
+      </c>
+      <c r="U96" s="2">
+        <f t="shared" si="25"/>
+        <v>148</v>
+      </c>
+      <c r="V96" s="2">
+        <f t="shared" si="26"/>
+        <v>-875</v>
+      </c>
+      <c r="W96" s="2">
+        <f t="shared" si="27"/>
+        <v>1120</v>
+      </c>
+      <c r="X96" s="2">
+        <f t="shared" si="28"/>
+        <v>-3180</v>
+      </c>
+      <c r="Y96" s="2">
+        <f t="shared" si="29"/>
+        <v>4236</v>
+      </c>
+      <c r="AA96" s="2">
+        <f t="shared" si="32"/>
+        <v>-2</v>
+      </c>
+      <c r="AB96" s="2">
+        <f t="shared" si="33"/>
+        <v>-6</v>
+      </c>
+      <c r="AC96" s="2">
+        <f t="shared" si="34"/>
+        <v>-28</v>
+      </c>
+      <c r="AD96" s="2">
+        <f t="shared" si="35"/>
+        <v>-88</v>
+      </c>
+      <c r="AE96" s="2">
+        <f t="shared" si="36"/>
+        <v>26</v>
+      </c>
+      <c r="AF96" s="2">
+        <f t="shared" si="37"/>
+        <v>-574</v>
+      </c>
+      <c r="AG96" s="2">
+        <f t="shared" si="38"/>
+        <v>648</v>
+      </c>
+      <c r="AH96" s="2">
+        <f t="shared" si="39"/>
+        <v>-2304</v>
+      </c>
+      <c r="AI96" s="2">
+        <f t="shared" si="40"/>
+        <v>2966</v>
+      </c>
+      <c r="AK96" s="2">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="AL96" s="2">
+        <f t="shared" si="44"/>
+        <v>-4</v>
+      </c>
+      <c r="AM96" s="2">
+        <f t="shared" si="45"/>
+        <v>-28</v>
+      </c>
+      <c r="AN96" s="2">
+        <f t="shared" si="46"/>
+        <v>-48</v>
+      </c>
+      <c r="AO96" s="2">
         <f t="shared" si="47"/>
+        <v>-44</v>
+      </c>
+      <c r="AP96" s="2">
+        <f t="shared" si="48"/>
+        <v>-364</v>
+      </c>
+      <c r="AQ96" s="2">
+        <f t="shared" si="49"/>
+        <v>312</v>
+      </c>
+      <c r="AR96" s="2">
+        <f t="shared" si="50"/>
+        <v>-1632</v>
+      </c>
+      <c r="AS96" s="2">
+        <f t="shared" si="51"/>
+        <v>1976</v>
+      </c>
+      <c r="AU96" s="2">
+        <f t="shared" ref="AU96:AU100" si="54">AK96-AK95</f>
+        <v>1</v>
+      </c>
+      <c r="AV96" s="2">
+        <f t="shared" ref="AV96:AV100" si="55">AL96-AL95</f>
         <v>-4</v>
       </c>
-      <c r="D96" s="2">
-        <f t="shared" si="47"/>
-        <v>-29.5</v>
-      </c>
-      <c r="E96" s="2">
-        <f t="shared" si="47"/>
-        <v>16</v>
-      </c>
-      <c r="F96" s="2">
-        <f t="shared" si="47"/>
-        <v>-270.5</v>
-      </c>
-      <c r="G96" s="2">
-        <f t="shared" si="47"/>
-        <v>340</v>
-      </c>
-      <c r="H96" s="2">
-        <f t="shared" si="47"/>
-        <v>-1291.5</v>
-      </c>
-      <c r="I96" s="2">
-        <f t="shared" si="47"/>
-        <v>1760</v>
-      </c>
-      <c r="J96" s="2">
-        <f t="shared" si="47"/>
-        <v>-4300.5</v>
-      </c>
-      <c r="K96" s="2">
-        <f t="shared" si="47"/>
-        <v>5836</v>
-      </c>
-      <c r="P96" s="2">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="Q96" s="2">
-        <f t="shared" si="15"/>
-        <v>-4</v>
-      </c>
-      <c r="R96" s="2">
-        <f t="shared" si="16"/>
-        <v>-13</v>
-      </c>
-      <c r="S96" s="2">
-        <f t="shared" si="17"/>
-        <v>-16</v>
-      </c>
-      <c r="T96" s="2">
-        <f t="shared" si="18"/>
-        <v>-158</v>
-      </c>
-      <c r="U96" s="2">
-        <f t="shared" si="19"/>
-        <v>148</v>
-      </c>
-      <c r="V96" s="2">
-        <f t="shared" si="20"/>
-        <v>-875</v>
-      </c>
-      <c r="W96" s="2">
-        <f t="shared" si="21"/>
-        <v>1120</v>
-      </c>
-      <c r="X96" s="2">
-        <f t="shared" si="22"/>
-        <v>-3180</v>
-      </c>
-      <c r="Y96" s="2">
-        <f t="shared" si="23"/>
-        <v>4236</v>
-      </c>
-      <c r="AA96" s="2">
-        <f t="shared" si="26"/>
-        <v>-2</v>
-      </c>
-      <c r="AB96" s="2">
-        <f t="shared" si="27"/>
-        <v>-6</v>
-      </c>
-      <c r="AC96" s="2">
-        <f t="shared" si="28"/>
+      <c r="AW96" s="2">
+        <f t="shared" ref="AW96:AW100" si="56">AM96-AM95</f>
+        <v>-22</v>
+      </c>
+      <c r="AX96" s="2">
+        <f t="shared" ref="AX96:AX100" si="57">AN96-AN95</f>
         <v>-28</v>
       </c>
-      <c r="AD96" s="2">
-        <f t="shared" si="29"/>
-        <v>-88</v>
-      </c>
-      <c r="AE96" s="2">
-        <f t="shared" si="30"/>
-        <v>26</v>
-      </c>
-      <c r="AF96" s="2">
-        <f t="shared" si="31"/>
-        <v>-574</v>
-      </c>
-      <c r="AG96" s="2">
-        <f t="shared" si="32"/>
-        <v>648</v>
-      </c>
-      <c r="AH96" s="2">
-        <f t="shared" si="33"/>
-        <v>-2304</v>
-      </c>
-      <c r="AI96" s="2">
-        <f t="shared" si="34"/>
-        <v>2966</v>
-      </c>
-      <c r="AK96" s="2">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="AL96" s="2">
-        <f t="shared" si="38"/>
-        <v>-4</v>
-      </c>
-      <c r="AM96" s="2">
-        <f t="shared" si="39"/>
-        <v>-28</v>
-      </c>
-      <c r="AN96" s="2">
-        <f t="shared" si="40"/>
-        <v>-48</v>
-      </c>
-      <c r="AO96" s="2">
-        <f t="shared" si="41"/>
-        <v>-44</v>
-      </c>
-      <c r="AP96" s="2">
-        <f t="shared" si="42"/>
-        <v>-364</v>
-      </c>
-      <c r="AQ96" s="2">
-        <f t="shared" si="43"/>
-        <v>312</v>
-      </c>
-      <c r="AR96" s="2">
-        <f t="shared" si="44"/>
-        <v>-1632</v>
-      </c>
-      <c r="AS96" s="2">
-        <f t="shared" si="45"/>
-        <v>1976</v>
-      </c>
-      <c r="AU96" s="2">
-        <f t="shared" ref="AU96:AU100" si="48">AK96-AK95</f>
-        <v>1</v>
-      </c>
-      <c r="AV96" s="2">
-        <f t="shared" ref="AV96:AV100" si="49">AL96-AL95</f>
-        <v>-4</v>
-      </c>
-      <c r="AW96" s="2">
-        <f t="shared" ref="AW96:AW100" si="50">AM96-AM95</f>
-        <v>-22</v>
-      </c>
-      <c r="AX96" s="2">
-        <f t="shared" ref="AX96:AX100" si="51">AN96-AN95</f>
-        <v>-28</v>
-      </c>
       <c r="AY96" s="2">
-        <f t="shared" ref="AY96:AY100" si="52">AO96-AO95</f>
+        <f t="shared" ref="AY96:AY100" si="58">AO96-AO95</f>
         <v>-77</v>
       </c>
       <c r="AZ96" s="2">
-        <f t="shared" ref="AZ96:AZ100" si="53">AP96-AP95</f>
+        <f t="shared" ref="AZ96:AZ100" si="59">AP96-AP95</f>
         <v>-224</v>
       </c>
       <c r="BA96" s="2">
-        <f t="shared" ref="BA96:BA100" si="54">AQ96-AQ95</f>
+        <f t="shared" ref="BA96:BA100" si="60">AQ96-AQ95</f>
         <v>84</v>
       </c>
       <c r="BB96" s="2">
-        <f t="shared" ref="BB96:BB100" si="55">AR96-AR95</f>
+        <f t="shared" ref="BB96:BB100" si="61">AR96-AR95</f>
         <v>-1128</v>
       </c>
       <c r="BC96" s="2">
-        <f t="shared" ref="BC96:BC100" si="56">AS96-AS95</f>
+        <f t="shared" ref="BC96:BC100" si="62">AS96-AS95</f>
         <v>1221</v>
       </c>
     </row>
@@ -9075,191 +10534,191 @@
         <v>7</v>
       </c>
       <c r="B97" s="2">
-        <f t="shared" ref="B97:K97" si="57">B9/2-B86</f>
+        <f t="shared" ref="B97:K97" si="63">B9/2-B86</f>
         <v>-0.5</v>
       </c>
       <c r="C97" s="2">
+        <f t="shared" si="63"/>
+        <v>-8</v>
+      </c>
+      <c r="D97" s="2">
+        <f t="shared" si="63"/>
+        <v>-60.5</v>
+      </c>
+      <c r="E97" s="2">
+        <f t="shared" si="63"/>
+        <v>-96</v>
+      </c>
+      <c r="F97" s="2">
+        <f t="shared" si="63"/>
+        <v>-692.5</v>
+      </c>
+      <c r="G97" s="2">
+        <f t="shared" si="63"/>
+        <v>56</v>
+      </c>
+      <c r="H97" s="2">
+        <f t="shared" si="63"/>
+        <v>-3944.5</v>
+      </c>
+      <c r="I97" s="2">
+        <f t="shared" si="63"/>
+        <v>2688</v>
+      </c>
+      <c r="J97" s="2">
+        <f t="shared" si="63"/>
+        <v>-15448.5</v>
+      </c>
+      <c r="K97" s="2">
+        <f t="shared" si="63"/>
+        <v>14520</v>
+      </c>
+      <c r="P97" s="2">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Q97" s="2">
+        <f t="shared" si="21"/>
+        <v>-4</v>
+      </c>
+      <c r="R97" s="2">
+        <f t="shared" si="22"/>
+        <v>-31</v>
+      </c>
+      <c r="S97" s="2">
+        <f t="shared" si="23"/>
+        <v>-112</v>
+      </c>
+      <c r="T97" s="2">
+        <f t="shared" si="24"/>
+        <v>-422</v>
+      </c>
+      <c r="U97" s="2">
+        <f t="shared" si="25"/>
+        <v>-284</v>
+      </c>
+      <c r="V97" s="2">
+        <f t="shared" si="26"/>
+        <v>-2653</v>
+      </c>
+      <c r="W97" s="2">
+        <f t="shared" si="27"/>
+        <v>928</v>
+      </c>
+      <c r="X97" s="2">
+        <f t="shared" si="28"/>
+        <v>-11148</v>
+      </c>
+      <c r="Y97" s="2">
+        <f t="shared" si="29"/>
+        <v>8684</v>
+      </c>
+      <c r="AA97" s="2">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="AB97" s="2">
+        <f t="shared" si="33"/>
+        <v>-18</v>
+      </c>
+      <c r="AC97" s="2">
+        <f t="shared" si="34"/>
+        <v>-96</v>
+      </c>
+      <c r="AD97" s="2">
+        <f t="shared" si="35"/>
+        <v>-264</v>
+      </c>
+      <c r="AE97" s="2">
+        <f t="shared" si="36"/>
+        <v>-432</v>
+      </c>
+      <c r="AF97" s="2">
+        <f t="shared" si="37"/>
+        <v>-1778</v>
+      </c>
+      <c r="AG97" s="2">
+        <f t="shared" si="38"/>
+        <v>-192</v>
+      </c>
+      <c r="AH97" s="2">
+        <f t="shared" si="39"/>
+        <v>-7968</v>
+      </c>
+      <c r="AI97" s="2">
+        <f t="shared" si="40"/>
+        <v>4448</v>
+      </c>
+      <c r="AK97" s="2">
+        <f t="shared" si="43"/>
+        <v>2</v>
+      </c>
+      <c r="AL97" s="2">
+        <f t="shared" si="44"/>
+        <v>-12</v>
+      </c>
+      <c r="AM97" s="2">
+        <f t="shared" si="45"/>
+        <v>-68</v>
+      </c>
+      <c r="AN97" s="2">
+        <f t="shared" si="46"/>
+        <v>-176</v>
+      </c>
+      <c r="AO97" s="2">
+        <f t="shared" si="47"/>
+        <v>-458</v>
+      </c>
+      <c r="AP97" s="2">
+        <f t="shared" si="48"/>
+        <v>-1204</v>
+      </c>
+      <c r="AQ97" s="2">
+        <f t="shared" si="49"/>
+        <v>-840</v>
+      </c>
+      <c r="AR97" s="2">
+        <f t="shared" si="50"/>
+        <v>-5664</v>
+      </c>
+      <c r="AS97" s="2">
+        <f t="shared" si="51"/>
+        <v>1482</v>
+      </c>
+      <c r="AU97" s="2">
+        <f t="shared" si="54"/>
+        <v>2</v>
+      </c>
+      <c r="AV97" s="2">
+        <f t="shared" si="55"/>
+        <v>-8</v>
+      </c>
+      <c r="AW97" s="2">
+        <f t="shared" si="56"/>
+        <v>-40</v>
+      </c>
+      <c r="AX97" s="2">
         <f t="shared" si="57"/>
-        <v>-8</v>
-      </c>
-      <c r="D97" s="2">
-        <f t="shared" si="57"/>
-        <v>-60.5</v>
-      </c>
-      <c r="E97" s="2">
-        <f t="shared" si="57"/>
-        <v>-96</v>
-      </c>
-      <c r="F97" s="2">
-        <f t="shared" si="57"/>
-        <v>-692.5</v>
-      </c>
-      <c r="G97" s="2">
-        <f t="shared" si="57"/>
-        <v>56</v>
-      </c>
-      <c r="H97" s="2">
-        <f t="shared" si="57"/>
-        <v>-3944.5</v>
-      </c>
-      <c r="I97" s="2">
-        <f t="shared" si="57"/>
-        <v>2688</v>
-      </c>
-      <c r="J97" s="2">
-        <f t="shared" si="57"/>
-        <v>-15448.5</v>
-      </c>
-      <c r="K97" s="2">
-        <f t="shared" si="57"/>
-        <v>14520</v>
-      </c>
-      <c r="P97" s="2">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="Q97" s="2">
-        <f t="shared" si="15"/>
-        <v>-4</v>
-      </c>
-      <c r="R97" s="2">
-        <f t="shared" si="16"/>
-        <v>-31</v>
-      </c>
-      <c r="S97" s="2">
-        <f t="shared" si="17"/>
-        <v>-112</v>
-      </c>
-      <c r="T97" s="2">
-        <f t="shared" si="18"/>
-        <v>-422</v>
-      </c>
-      <c r="U97" s="2">
-        <f t="shared" si="19"/>
-        <v>-284</v>
-      </c>
-      <c r="V97" s="2">
-        <f t="shared" si="20"/>
-        <v>-2653</v>
-      </c>
-      <c r="W97" s="2">
-        <f t="shared" si="21"/>
-        <v>928</v>
-      </c>
-      <c r="X97" s="2">
-        <f t="shared" si="22"/>
-        <v>-11148</v>
-      </c>
-      <c r="Y97" s="2">
-        <f t="shared" si="23"/>
-        <v>8684</v>
-      </c>
-      <c r="AA97" s="2">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="AB97" s="2">
-        <f t="shared" si="27"/>
-        <v>-18</v>
-      </c>
-      <c r="AC97" s="2">
-        <f t="shared" si="28"/>
-        <v>-96</v>
-      </c>
-      <c r="AD97" s="2">
-        <f t="shared" si="29"/>
-        <v>-264</v>
-      </c>
-      <c r="AE97" s="2">
-        <f t="shared" si="30"/>
-        <v>-432</v>
-      </c>
-      <c r="AF97" s="2">
-        <f t="shared" si="31"/>
-        <v>-1778</v>
-      </c>
-      <c r="AG97" s="2">
-        <f t="shared" si="32"/>
-        <v>-192</v>
-      </c>
-      <c r="AH97" s="2">
-        <f t="shared" si="33"/>
-        <v>-7968</v>
-      </c>
-      <c r="AI97" s="2">
-        <f t="shared" si="34"/>
-        <v>4448</v>
-      </c>
-      <c r="AK97" s="2">
-        <f t="shared" si="37"/>
-        <v>2</v>
-      </c>
-      <c r="AL97" s="2">
-        <f t="shared" si="38"/>
-        <v>-12</v>
-      </c>
-      <c r="AM97" s="2">
-        <f t="shared" si="39"/>
-        <v>-68</v>
-      </c>
-      <c r="AN97" s="2">
-        <f t="shared" si="40"/>
-        <v>-176</v>
-      </c>
-      <c r="AO97" s="2">
-        <f t="shared" si="41"/>
-        <v>-458</v>
-      </c>
-      <c r="AP97" s="2">
-        <f t="shared" si="42"/>
-        <v>-1204</v>
-      </c>
-      <c r="AQ97" s="2">
-        <f t="shared" si="43"/>
+        <v>-128</v>
+      </c>
+      <c r="AY97" s="2">
+        <f t="shared" si="58"/>
+        <v>-414</v>
+      </c>
+      <c r="AZ97" s="2">
+        <f t="shared" si="59"/>
         <v>-840</v>
       </c>
-      <c r="AR97" s="2">
-        <f t="shared" si="44"/>
-        <v>-5664</v>
-      </c>
-      <c r="AS97" s="2">
-        <f t="shared" si="45"/>
-        <v>1482</v>
-      </c>
-      <c r="AU97" s="2">
-        <f t="shared" si="48"/>
-        <v>2</v>
-      </c>
-      <c r="AV97" s="2">
-        <f t="shared" si="49"/>
-        <v>-8</v>
-      </c>
-      <c r="AW97" s="2">
-        <f t="shared" si="50"/>
-        <v>-40</v>
-      </c>
-      <c r="AX97" s="2">
-        <f t="shared" si="51"/>
-        <v>-128</v>
-      </c>
-      <c r="AY97" s="2">
-        <f t="shared" si="52"/>
-        <v>-414</v>
-      </c>
-      <c r="AZ97" s="2">
-        <f t="shared" si="53"/>
-        <v>-840</v>
-      </c>
       <c r="BA97" s="2">
-        <f t="shared" si="54"/>
+        <f t="shared" si="60"/>
         <v>-1152</v>
       </c>
       <c r="BB97" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>-4032</v>
       </c>
       <c r="BC97" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>-494</v>
       </c>
     </row>
@@ -9268,191 +10727,191 @@
         <v>8</v>
       </c>
       <c r="B98" s="2">
-        <f t="shared" ref="B98:K98" si="58">B10/2-B87</f>
+        <f t="shared" ref="B98:K98" si="64">B10/2-B87</f>
         <v>-0.5</v>
       </c>
       <c r="C98" s="2">
+        <f t="shared" si="64"/>
+        <v>-8</v>
+      </c>
+      <c r="D98" s="2">
+        <f t="shared" si="64"/>
+        <v>-129.5</v>
+      </c>
+      <c r="E98" s="2">
+        <f t="shared" si="64"/>
+        <v>-416</v>
+      </c>
+      <c r="F98" s="2">
+        <f t="shared" si="64"/>
+        <v>-1986.5</v>
+      </c>
+      <c r="G98" s="2">
+        <f t="shared" si="64"/>
+        <v>-2520</v>
+      </c>
+      <c r="H98" s="2">
+        <f t="shared" si="64"/>
+        <v>-13251.5</v>
+      </c>
+      <c r="I98" s="2">
+        <f t="shared" si="64"/>
+        <v>-5312</v>
+      </c>
+      <c r="J98" s="2">
+        <f t="shared" si="64"/>
+        <v>-58564.5</v>
+      </c>
+      <c r="K98" s="2">
+        <f t="shared" si="64"/>
+        <v>5912</v>
+      </c>
+      <c r="P98" s="2">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Q98" s="2">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="R98" s="2">
+        <f t="shared" si="22"/>
+        <v>-69</v>
+      </c>
+      <c r="S98" s="2">
+        <f t="shared" si="23"/>
+        <v>-320</v>
+      </c>
+      <c r="T98" s="2">
+        <f t="shared" si="24"/>
+        <v>-1294</v>
+      </c>
+      <c r="U98" s="2">
+        <f t="shared" si="25"/>
+        <v>-2576</v>
+      </c>
+      <c r="V98" s="2">
+        <f t="shared" si="26"/>
+        <v>-9307</v>
+      </c>
+      <c r="W98" s="2">
+        <f t="shared" si="27"/>
+        <v>-8000</v>
+      </c>
+      <c r="X98" s="2">
+        <f t="shared" si="28"/>
+        <v>-43116</v>
+      </c>
+      <c r="Y98" s="2">
+        <f t="shared" si="29"/>
+        <v>-8608</v>
+      </c>
+      <c r="AA98" s="2">
+        <f t="shared" si="32"/>
+        <v>4</v>
+      </c>
+      <c r="AB98" s="2">
+        <f t="shared" si="33"/>
+        <v>-38</v>
+      </c>
+      <c r="AC98" s="2">
+        <f t="shared" si="34"/>
+        <v>-208</v>
+      </c>
+      <c r="AD98" s="2">
+        <f t="shared" si="35"/>
+        <v>-872</v>
+      </c>
+      <c r="AE98" s="2">
+        <f t="shared" si="36"/>
+        <v>-2292</v>
+      </c>
+      <c r="AF98" s="2">
+        <f t="shared" si="37"/>
+        <v>-6654</v>
+      </c>
+      <c r="AG98" s="2">
+        <f t="shared" si="38"/>
+        <v>-8928</v>
+      </c>
+      <c r="AH98" s="2">
+        <f t="shared" si="39"/>
+        <v>-31968</v>
+      </c>
+      <c r="AI98" s="2">
+        <f t="shared" si="40"/>
+        <v>-17292</v>
+      </c>
+      <c r="AK98" s="2">
+        <f t="shared" si="43"/>
+        <v>4</v>
+      </c>
+      <c r="AL98" s="2">
+        <f t="shared" si="44"/>
+        <v>-20</v>
+      </c>
+      <c r="AM98" s="2">
+        <f t="shared" si="45"/>
+        <v>-112</v>
+      </c>
+      <c r="AN98" s="2">
+        <f t="shared" si="46"/>
+        <v>-608</v>
+      </c>
+      <c r="AO98" s="2">
+        <f t="shared" si="47"/>
+        <v>-1860</v>
+      </c>
+      <c r="AP98" s="2">
+        <f t="shared" si="48"/>
+        <v>-4876</v>
+      </c>
+      <c r="AQ98" s="2">
+        <f t="shared" si="49"/>
+        <v>-8736</v>
+      </c>
+      <c r="AR98" s="2">
+        <f t="shared" si="50"/>
+        <v>-24000</v>
+      </c>
+      <c r="AS98" s="2">
+        <f t="shared" si="51"/>
+        <v>-21740</v>
+      </c>
+      <c r="AU98" s="2">
+        <f t="shared" si="54"/>
+        <v>2</v>
+      </c>
+      <c r="AV98" s="2">
+        <f t="shared" si="55"/>
+        <v>-8</v>
+      </c>
+      <c r="AW98" s="2">
+        <f t="shared" si="56"/>
+        <v>-44</v>
+      </c>
+      <c r="AX98" s="2">
+        <f t="shared" si="57"/>
+        <v>-432</v>
+      </c>
+      <c r="AY98" s="2">
         <f t="shared" si="58"/>
-        <v>-8</v>
-      </c>
-      <c r="D98" s="2">
-        <f t="shared" si="58"/>
-        <v>-129.5</v>
-      </c>
-      <c r="E98" s="2">
-        <f t="shared" si="58"/>
-        <v>-416</v>
-      </c>
-      <c r="F98" s="2">
-        <f t="shared" si="58"/>
-        <v>-1986.5</v>
-      </c>
-      <c r="G98" s="2">
-        <f t="shared" si="58"/>
-        <v>-2520</v>
-      </c>
-      <c r="H98" s="2">
-        <f t="shared" si="58"/>
-        <v>-13251.5</v>
-      </c>
-      <c r="I98" s="2">
-        <f t="shared" si="58"/>
-        <v>-5312</v>
-      </c>
-      <c r="J98" s="2">
-        <f t="shared" si="58"/>
-        <v>-58564.5</v>
-      </c>
-      <c r="K98" s="2">
-        <f t="shared" si="58"/>
-        <v>5912</v>
-      </c>
-      <c r="P98" s="2">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="Q98" s="2">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="R98" s="2">
-        <f t="shared" si="16"/>
-        <v>-69</v>
-      </c>
-      <c r="S98" s="2">
-        <f t="shared" si="17"/>
-        <v>-320</v>
-      </c>
-      <c r="T98" s="2">
-        <f t="shared" si="18"/>
-        <v>-1294</v>
-      </c>
-      <c r="U98" s="2">
-        <f t="shared" si="19"/>
-        <v>-2576</v>
-      </c>
-      <c r="V98" s="2">
-        <f t="shared" si="20"/>
-        <v>-9307</v>
-      </c>
-      <c r="W98" s="2">
-        <f t="shared" si="21"/>
-        <v>-8000</v>
-      </c>
-      <c r="X98" s="2">
-        <f t="shared" si="22"/>
-        <v>-43116</v>
-      </c>
-      <c r="Y98" s="2">
-        <f t="shared" si="23"/>
-        <v>-8608</v>
-      </c>
-      <c r="AA98" s="2">
-        <f t="shared" si="26"/>
-        <v>4</v>
-      </c>
-      <c r="AB98" s="2">
-        <f t="shared" si="27"/>
-        <v>-38</v>
-      </c>
-      <c r="AC98" s="2">
-        <f t="shared" si="28"/>
-        <v>-208</v>
-      </c>
-      <c r="AD98" s="2">
-        <f t="shared" si="29"/>
-        <v>-872</v>
-      </c>
-      <c r="AE98" s="2">
-        <f t="shared" si="30"/>
-        <v>-2292</v>
-      </c>
-      <c r="AF98" s="2">
-        <f t="shared" si="31"/>
-        <v>-6654</v>
-      </c>
-      <c r="AG98" s="2">
-        <f t="shared" si="32"/>
-        <v>-8928</v>
-      </c>
-      <c r="AH98" s="2">
-        <f t="shared" si="33"/>
-        <v>-31968</v>
-      </c>
-      <c r="AI98" s="2">
-        <f t="shared" si="34"/>
-        <v>-17292</v>
-      </c>
-      <c r="AK98" s="2">
-        <f t="shared" si="37"/>
-        <v>4</v>
-      </c>
-      <c r="AL98" s="2">
-        <f t="shared" si="38"/>
-        <v>-20</v>
-      </c>
-      <c r="AM98" s="2">
-        <f t="shared" si="39"/>
-        <v>-112</v>
-      </c>
-      <c r="AN98" s="2">
-        <f t="shared" si="40"/>
-        <v>-608</v>
-      </c>
-      <c r="AO98" s="2">
-        <f t="shared" si="41"/>
-        <v>-1860</v>
-      </c>
-      <c r="AP98" s="2">
-        <f t="shared" si="42"/>
-        <v>-4876</v>
-      </c>
-      <c r="AQ98" s="2">
-        <f t="shared" si="43"/>
-        <v>-8736</v>
-      </c>
-      <c r="AR98" s="2">
-        <f t="shared" si="44"/>
-        <v>-24000</v>
-      </c>
-      <c r="AS98" s="2">
-        <f t="shared" si="45"/>
-        <v>-21740</v>
-      </c>
-      <c r="AU98" s="2">
-        <f t="shared" si="48"/>
-        <v>2</v>
-      </c>
-      <c r="AV98" s="2">
-        <f t="shared" si="49"/>
-        <v>-8</v>
-      </c>
-      <c r="AW98" s="2">
-        <f t="shared" si="50"/>
-        <v>-44</v>
-      </c>
-      <c r="AX98" s="2">
-        <f t="shared" si="51"/>
-        <v>-432</v>
-      </c>
-      <c r="AY98" s="2">
-        <f t="shared" si="52"/>
         <v>-1402</v>
       </c>
       <c r="AZ98" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="59"/>
         <v>-3672</v>
       </c>
       <c r="BA98" s="2">
-        <f t="shared" si="54"/>
+        <f t="shared" si="60"/>
         <v>-7896</v>
       </c>
       <c r="BB98" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>-18336</v>
       </c>
       <c r="BC98" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>-23222</v>
       </c>
     </row>
@@ -9461,191 +10920,191 @@
         <v>9</v>
       </c>
       <c r="B99" s="2">
-        <f t="shared" ref="B99:K99" si="59">B11/2-B88</f>
+        <f t="shared" ref="B99:K99" si="65">B11/2-B88</f>
         <v>-0.5</v>
       </c>
       <c r="C99" s="2">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="D99" s="2">
+        <f t="shared" si="65"/>
+        <v>-264.5</v>
+      </c>
+      <c r="E99" s="2">
+        <f t="shared" si="65"/>
+        <v>-1024</v>
+      </c>
+      <c r="F99" s="2">
+        <f t="shared" si="65"/>
+        <v>-5912.5</v>
+      </c>
+      <c r="G99" s="2">
+        <f t="shared" si="65"/>
+        <v>-12800</v>
+      </c>
+      <c r="H99" s="2">
+        <f t="shared" si="65"/>
+        <v>-48688.5</v>
+      </c>
+      <c r="I99" s="2">
+        <f t="shared" si="65"/>
+        <v>-65536</v>
+      </c>
+      <c r="J99" s="2">
+        <f t="shared" si="65"/>
+        <v>-246352.5</v>
+      </c>
+      <c r="K99" s="2">
+        <f t="shared" si="65"/>
+        <v>-202240</v>
+      </c>
+      <c r="P99" s="2">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Q99" s="2">
+        <f t="shared" si="21"/>
+        <v>8</v>
+      </c>
+      <c r="R99" s="2">
+        <f t="shared" si="22"/>
+        <v>-135</v>
+      </c>
+      <c r="S99" s="2">
+        <f t="shared" si="23"/>
+        <v>-608</v>
+      </c>
+      <c r="T99" s="2">
+        <f t="shared" si="24"/>
+        <v>-3926</v>
+      </c>
+      <c r="U99" s="2">
+        <f t="shared" si="25"/>
+        <v>-10280</v>
+      </c>
+      <c r="V99" s="2">
+        <f t="shared" si="26"/>
+        <v>-35437</v>
+      </c>
+      <c r="W99" s="2">
+        <f t="shared" si="27"/>
+        <v>-60224</v>
+      </c>
+      <c r="X99" s="2">
+        <f t="shared" si="28"/>
+        <v>-187788</v>
+      </c>
+      <c r="Y99" s="2">
+        <f t="shared" si="29"/>
+        <v>-208152</v>
+      </c>
+      <c r="AA99" s="2">
+        <f t="shared" si="32"/>
+        <v>8</v>
+      </c>
+      <c r="AB99" s="2">
+        <f t="shared" si="33"/>
+        <v>-66</v>
+      </c>
+      <c r="AC99" s="2">
+        <f t="shared" si="34"/>
+        <v>-288</v>
+      </c>
+      <c r="AD99" s="2">
+        <f t="shared" si="35"/>
+        <v>-2632</v>
+      </c>
+      <c r="AE99" s="2">
+        <f t="shared" si="36"/>
+        <v>-7704</v>
+      </c>
+      <c r="AF99" s="2">
+        <f t="shared" si="37"/>
+        <v>-26130</v>
+      </c>
+      <c r="AG99" s="2">
+        <f t="shared" si="38"/>
+        <v>-52224</v>
+      </c>
+      <c r="AH99" s="2">
+        <f t="shared" si="39"/>
+        <v>-144672</v>
+      </c>
+      <c r="AI99" s="2">
+        <f t="shared" si="40"/>
+        <v>-199544</v>
+      </c>
+      <c r="AK99" s="2">
+        <f t="shared" si="43"/>
+        <v>4</v>
+      </c>
+      <c r="AL99" s="2">
+        <f t="shared" si="44"/>
+        <v>-28</v>
+      </c>
+      <c r="AM99" s="2">
+        <f t="shared" si="45"/>
+        <v>-80</v>
+      </c>
+      <c r="AN99" s="2">
+        <f t="shared" si="46"/>
+        <v>-1760</v>
+      </c>
+      <c r="AO99" s="2">
+        <f t="shared" si="47"/>
+        <v>-5412</v>
+      </c>
+      <c r="AP99" s="2">
+        <f t="shared" si="48"/>
+        <v>-19476</v>
+      </c>
+      <c r="AQ99" s="2">
+        <f t="shared" si="49"/>
+        <v>-43296</v>
+      </c>
+      <c r="AR99" s="2">
+        <f t="shared" si="50"/>
+        <v>-112704</v>
+      </c>
+      <c r="AS99" s="2">
+        <f t="shared" si="51"/>
+        <v>-182252</v>
+      </c>
+      <c r="AU99" s="2">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="AV99" s="2">
+        <f t="shared" si="55"/>
+        <v>-8</v>
+      </c>
+      <c r="AW99" s="2">
+        <f t="shared" si="56"/>
+        <v>32</v>
+      </c>
+      <c r="AX99" s="2">
+        <f t="shared" si="57"/>
+        <v>-1152</v>
+      </c>
+      <c r="AY99" s="2">
+        <f t="shared" si="58"/>
+        <v>-3552</v>
+      </c>
+      <c r="AZ99" s="2">
         <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="D99" s="2">
-        <f t="shared" si="59"/>
-        <v>-264.5</v>
-      </c>
-      <c r="E99" s="2">
-        <f t="shared" si="59"/>
-        <v>-1024</v>
-      </c>
-      <c r="F99" s="2">
-        <f t="shared" si="59"/>
-        <v>-5912.5</v>
-      </c>
-      <c r="G99" s="2">
-        <f t="shared" si="59"/>
-        <v>-12800</v>
-      </c>
-      <c r="H99" s="2">
-        <f t="shared" si="59"/>
-        <v>-48688.5</v>
-      </c>
-      <c r="I99" s="2">
-        <f t="shared" si="59"/>
-        <v>-65536</v>
-      </c>
-      <c r="J99" s="2">
-        <f t="shared" si="59"/>
-        <v>-246352.5</v>
-      </c>
-      <c r="K99" s="2">
-        <f t="shared" si="59"/>
-        <v>-202240</v>
-      </c>
-      <c r="P99" s="2">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="Q99" s="2">
-        <f t="shared" si="15"/>
-        <v>8</v>
-      </c>
-      <c r="R99" s="2">
-        <f t="shared" si="16"/>
-        <v>-135</v>
-      </c>
-      <c r="S99" s="2">
-        <f t="shared" si="17"/>
-        <v>-608</v>
-      </c>
-      <c r="T99" s="2">
-        <f t="shared" si="18"/>
-        <v>-3926</v>
-      </c>
-      <c r="U99" s="2">
-        <f t="shared" si="19"/>
-        <v>-10280</v>
-      </c>
-      <c r="V99" s="2">
-        <f t="shared" si="20"/>
-        <v>-35437</v>
-      </c>
-      <c r="W99" s="2">
-        <f t="shared" si="21"/>
-        <v>-60224</v>
-      </c>
-      <c r="X99" s="2">
-        <f t="shared" si="22"/>
-        <v>-187788</v>
-      </c>
-      <c r="Y99" s="2">
-        <f t="shared" si="23"/>
-        <v>-208152</v>
-      </c>
-      <c r="AA99" s="2">
-        <f t="shared" si="26"/>
-        <v>8</v>
-      </c>
-      <c r="AB99" s="2">
-        <f t="shared" si="27"/>
-        <v>-66</v>
-      </c>
-      <c r="AC99" s="2">
-        <f t="shared" si="28"/>
-        <v>-288</v>
-      </c>
-      <c r="AD99" s="2">
-        <f t="shared" si="29"/>
-        <v>-2632</v>
-      </c>
-      <c r="AE99" s="2">
-        <f t="shared" si="30"/>
-        <v>-7704</v>
-      </c>
-      <c r="AF99" s="2">
-        <f t="shared" si="31"/>
-        <v>-26130</v>
-      </c>
-      <c r="AG99" s="2">
-        <f t="shared" si="32"/>
-        <v>-52224</v>
-      </c>
-      <c r="AH99" s="2">
-        <f t="shared" si="33"/>
-        <v>-144672</v>
-      </c>
-      <c r="AI99" s="2">
-        <f t="shared" si="34"/>
-        <v>-199544</v>
-      </c>
-      <c r="AK99" s="2">
-        <f t="shared" si="37"/>
-        <v>4</v>
-      </c>
-      <c r="AL99" s="2">
-        <f t="shared" si="38"/>
-        <v>-28</v>
-      </c>
-      <c r="AM99" s="2">
-        <f t="shared" si="39"/>
-        <v>-80</v>
-      </c>
-      <c r="AN99" s="2">
-        <f t="shared" si="40"/>
-        <v>-1760</v>
-      </c>
-      <c r="AO99" s="2">
-        <f t="shared" si="41"/>
-        <v>-5412</v>
-      </c>
-      <c r="AP99" s="2">
-        <f t="shared" si="42"/>
-        <v>-19476</v>
-      </c>
-      <c r="AQ99" s="2">
-        <f t="shared" si="43"/>
-        <v>-43296</v>
-      </c>
-      <c r="AR99" s="2">
-        <f t="shared" si="44"/>
-        <v>-112704</v>
-      </c>
-      <c r="AS99" s="2">
-        <f t="shared" si="45"/>
-        <v>-182252</v>
-      </c>
-      <c r="AU99" s="2">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="AV99" s="2">
-        <f t="shared" si="49"/>
-        <v>-8</v>
-      </c>
-      <c r="AW99" s="2">
-        <f t="shared" si="50"/>
-        <v>32</v>
-      </c>
-      <c r="AX99" s="2">
-        <f t="shared" si="51"/>
-        <v>-1152</v>
-      </c>
-      <c r="AY99" s="2">
-        <f t="shared" si="52"/>
-        <v>-3552</v>
-      </c>
-      <c r="AZ99" s="2">
-        <f t="shared" si="53"/>
         <v>-14600</v>
       </c>
       <c r="BA99" s="2">
-        <f t="shared" si="54"/>
+        <f t="shared" si="60"/>
         <v>-34560</v>
       </c>
       <c r="BB99" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>-88704</v>
       </c>
       <c r="BC99" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>-160512</v>
       </c>
     </row>
@@ -9654,191 +11113,191 @@
         <v>10</v>
       </c>
       <c r="B100" s="2">
-        <f t="shared" ref="B100:K100" si="60">B12/2-B89</f>
+        <f t="shared" ref="B100:K100" si="66">B12/2-B89</f>
         <v>-0.5</v>
       </c>
       <c r="C100" s="2">
+        <f t="shared" si="66"/>
+        <v>16</v>
+      </c>
+      <c r="D100" s="2">
+        <f t="shared" si="66"/>
+        <v>-517.5</v>
+      </c>
+      <c r="E100" s="2">
+        <f t="shared" si="66"/>
+        <v>-1664</v>
+      </c>
+      <c r="F100" s="2">
+        <f t="shared" si="66"/>
+        <v>-17046.5</v>
+      </c>
+      <c r="G100" s="2">
+        <f t="shared" si="66"/>
+        <v>-42064</v>
+      </c>
+      <c r="H100" s="2">
+        <f t="shared" si="66"/>
+        <v>-181179.5</v>
+      </c>
+      <c r="I100" s="2">
+        <f t="shared" si="66"/>
+        <v>-337408</v>
+      </c>
+      <c r="J100" s="2">
+        <f t="shared" si="66"/>
+        <v>-1093116.5</v>
+      </c>
+      <c r="K100" s="2">
+        <f t="shared" si="66"/>
+        <v>-1578544</v>
+      </c>
+      <c r="P100" s="2">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Q100" s="2">
+        <f t="shared" si="21"/>
+        <v>16</v>
+      </c>
+      <c r="R100" s="2">
+        <f t="shared" si="22"/>
+        <v>-253</v>
+      </c>
+      <c r="S100" s="2">
+        <f t="shared" si="23"/>
+        <v>-640</v>
+      </c>
+      <c r="T100" s="2">
+        <f t="shared" si="24"/>
+        <v>-11134</v>
+      </c>
+      <c r="U100" s="2">
+        <f t="shared" si="25"/>
+        <v>-29264</v>
+      </c>
+      <c r="V100" s="2">
+        <f t="shared" si="26"/>
+        <v>-132491</v>
+      </c>
+      <c r="W100" s="2">
+        <f t="shared" si="27"/>
+        <v>-271872</v>
+      </c>
+      <c r="X100" s="2">
+        <f t="shared" si="28"/>
+        <v>-846764</v>
+      </c>
+      <c r="Y100" s="2">
+        <f t="shared" si="29"/>
+        <v>-1376304</v>
+      </c>
+      <c r="AA100" s="2">
+        <f t="shared" si="32"/>
+        <v>8</v>
+      </c>
+      <c r="AB100" s="2">
+        <f t="shared" si="33"/>
+        <v>-118</v>
+      </c>
+      <c r="AC100" s="2">
+        <f t="shared" si="34"/>
+        <v>-32</v>
+      </c>
+      <c r="AD100" s="2">
+        <f t="shared" si="35"/>
+        <v>-7208</v>
+      </c>
+      <c r="AE100" s="2">
+        <f t="shared" si="36"/>
+        <v>-18984</v>
+      </c>
+      <c r="AF100" s="2">
+        <f t="shared" si="37"/>
+        <v>-97054</v>
+      </c>
+      <c r="AG100" s="2">
+        <f t="shared" si="38"/>
+        <v>-211648</v>
+      </c>
+      <c r="AH100" s="2">
+        <f t="shared" si="39"/>
+        <v>-658976</v>
+      </c>
+      <c r="AI100" s="2">
+        <f t="shared" si="40"/>
+        <v>-1168152</v>
+      </c>
+      <c r="AK100" s="2">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="AL100" s="2">
+        <f t="shared" si="44"/>
+        <v>-52</v>
+      </c>
+      <c r="AM100" s="2">
+        <f t="shared" si="45"/>
+        <v>256</v>
+      </c>
+      <c r="AN100" s="2">
+        <f t="shared" si="46"/>
+        <v>-4576</v>
+      </c>
+      <c r="AO100" s="2">
+        <f t="shared" si="47"/>
+        <v>-11280</v>
+      </c>
+      <c r="AP100" s="2">
+        <f t="shared" si="48"/>
+        <v>-70924</v>
+      </c>
+      <c r="AQ100" s="2">
+        <f t="shared" si="49"/>
+        <v>-159424</v>
+      </c>
+      <c r="AR100" s="2">
+        <f t="shared" si="50"/>
+        <v>-514304</v>
+      </c>
+      <c r="AS100" s="2">
+        <f t="shared" si="51"/>
+        <v>-968608</v>
+      </c>
+      <c r="AU100" s="2">
+        <f t="shared" si="54"/>
+        <v>-4</v>
+      </c>
+      <c r="AV100" s="2">
+        <f t="shared" si="55"/>
+        <v>-24</v>
+      </c>
+      <c r="AW100" s="2">
+        <f t="shared" si="56"/>
+        <v>336</v>
+      </c>
+      <c r="AX100" s="2">
+        <f t="shared" si="57"/>
+        <v>-2816</v>
+      </c>
+      <c r="AY100" s="2">
+        <f t="shared" si="58"/>
+        <v>-5868</v>
+      </c>
+      <c r="AZ100" s="2">
+        <f t="shared" si="59"/>
+        <v>-51448</v>
+      </c>
+      <c r="BA100" s="2">
         <f t="shared" si="60"/>
-        <v>16</v>
-      </c>
-      <c r="D100" s="2">
-        <f t="shared" si="60"/>
-        <v>-517.5</v>
-      </c>
-      <c r="E100" s="2">
-        <f t="shared" si="60"/>
-        <v>-1664</v>
-      </c>
-      <c r="F100" s="2">
-        <f t="shared" si="60"/>
-        <v>-17046.5</v>
-      </c>
-      <c r="G100" s="2">
-        <f t="shared" si="60"/>
-        <v>-42064</v>
-      </c>
-      <c r="H100" s="2">
-        <f t="shared" si="60"/>
-        <v>-181179.5</v>
-      </c>
-      <c r="I100" s="2">
-        <f t="shared" si="60"/>
-        <v>-337408</v>
-      </c>
-      <c r="J100" s="2">
-        <f t="shared" si="60"/>
-        <v>-1093116.5</v>
-      </c>
-      <c r="K100" s="2">
-        <f t="shared" si="60"/>
-        <v>-1578544</v>
-      </c>
-      <c r="P100" s="2">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="Q100" s="2">
-        <f t="shared" si="15"/>
-        <v>16</v>
-      </c>
-      <c r="R100" s="2">
-        <f t="shared" si="16"/>
-        <v>-253</v>
-      </c>
-      <c r="S100" s="2">
-        <f t="shared" si="17"/>
-        <v>-640</v>
-      </c>
-      <c r="T100" s="2">
-        <f t="shared" si="18"/>
-        <v>-11134</v>
-      </c>
-      <c r="U100" s="2">
-        <f t="shared" si="19"/>
-        <v>-29264</v>
-      </c>
-      <c r="V100" s="2">
-        <f t="shared" si="20"/>
-        <v>-132491</v>
-      </c>
-      <c r="W100" s="2">
-        <f t="shared" si="21"/>
-        <v>-271872</v>
-      </c>
-      <c r="X100" s="2">
-        <f t="shared" si="22"/>
-        <v>-846764</v>
-      </c>
-      <c r="Y100" s="2">
-        <f t="shared" si="23"/>
-        <v>-1376304</v>
-      </c>
-      <c r="AA100" s="2">
-        <f t="shared" si="26"/>
-        <v>8</v>
-      </c>
-      <c r="AB100" s="2">
-        <f t="shared" si="27"/>
-        <v>-118</v>
-      </c>
-      <c r="AC100" s="2">
-        <f t="shared" si="28"/>
-        <v>-32</v>
-      </c>
-      <c r="AD100" s="2">
-        <f t="shared" si="29"/>
-        <v>-7208</v>
-      </c>
-      <c r="AE100" s="2">
-        <f t="shared" si="30"/>
-        <v>-18984</v>
-      </c>
-      <c r="AF100" s="2">
-        <f t="shared" si="31"/>
-        <v>-97054</v>
-      </c>
-      <c r="AG100" s="2">
-        <f t="shared" si="32"/>
-        <v>-211648</v>
-      </c>
-      <c r="AH100" s="2">
-        <f t="shared" si="33"/>
-        <v>-658976</v>
-      </c>
-      <c r="AI100" s="2">
-        <f t="shared" si="34"/>
-        <v>-1168152</v>
-      </c>
-      <c r="AK100" s="2">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="AL100" s="2">
-        <f t="shared" si="38"/>
-        <v>-52</v>
-      </c>
-      <c r="AM100" s="2">
-        <f t="shared" si="39"/>
-        <v>256</v>
-      </c>
-      <c r="AN100" s="2">
-        <f t="shared" si="40"/>
-        <v>-4576</v>
-      </c>
-      <c r="AO100" s="2">
-        <f t="shared" si="41"/>
-        <v>-11280</v>
-      </c>
-      <c r="AP100" s="2">
-        <f t="shared" si="42"/>
-        <v>-70924</v>
-      </c>
-      <c r="AQ100" s="2">
-        <f t="shared" si="43"/>
-        <v>-159424</v>
-      </c>
-      <c r="AR100" s="2">
-        <f t="shared" si="44"/>
-        <v>-514304</v>
-      </c>
-      <c r="AS100" s="2">
-        <f t="shared" si="45"/>
-        <v>-968608</v>
-      </c>
-      <c r="AU100" s="2">
-        <f t="shared" si="48"/>
-        <v>-4</v>
-      </c>
-      <c r="AV100" s="2">
-        <f t="shared" si="49"/>
-        <v>-24</v>
-      </c>
-      <c r="AW100" s="2">
-        <f t="shared" si="50"/>
-        <v>336</v>
-      </c>
-      <c r="AX100" s="2">
-        <f t="shared" si="51"/>
-        <v>-2816</v>
-      </c>
-      <c r="AY100" s="2">
-        <f t="shared" si="52"/>
-        <v>-5868</v>
-      </c>
-      <c r="AZ100" s="2">
-        <f t="shared" si="53"/>
-        <v>-51448</v>
-      </c>
-      <c r="BA100" s="2">
-        <f t="shared" si="54"/>
         <v>-116128</v>
       </c>
       <c r="BB100" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>-401600</v>
       </c>
       <c r="BC100" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>-786356</v>
       </c>
     </row>
@@ -9860,35 +11319,35 @@
         <v>1</v>
       </c>
       <c r="D103" s="2">
-        <f t="shared" ref="D103:K103" si="61">D69-C70</f>
+        <f t="shared" ref="D103:K103" si="67">D69-C70</f>
         <v>-2</v>
       </c>
       <c r="E103" s="2">
-        <f t="shared" si="61"/>
+        <f t="shared" si="67"/>
         <v>-1</v>
       </c>
       <c r="F103" s="2">
-        <f t="shared" si="61"/>
+        <f t="shared" si="67"/>
         <v>-8</v>
       </c>
       <c r="G103" s="2">
-        <f t="shared" si="61"/>
+        <f t="shared" si="67"/>
         <v>-7</v>
       </c>
       <c r="H103" s="2">
-        <f t="shared" si="61"/>
+        <f t="shared" si="67"/>
         <v>-18</v>
       </c>
       <c r="I103" s="2">
-        <f t="shared" si="61"/>
+        <f t="shared" si="67"/>
         <v>-17</v>
       </c>
       <c r="J103" s="2">
-        <f t="shared" si="61"/>
+        <f t="shared" si="67"/>
         <v>-32</v>
       </c>
       <c r="K103" s="2">
-        <f t="shared" si="61"/>
+        <f t="shared" si="67"/>
         <v>-31</v>
       </c>
     </row>
@@ -9897,39 +11356,39 @@
         <v>3</v>
       </c>
       <c r="C104" s="2">
-        <f t="shared" ref="C104:K104" si="62">C70-B71</f>
+        <f t="shared" ref="C104:K104" si="68">C70-B71</f>
         <v>3</v>
       </c>
       <c r="D104" s="2">
-        <f t="shared" si="62"/>
+        <f t="shared" si="68"/>
         <v>-3</v>
       </c>
       <c r="E104" s="2">
-        <f t="shared" si="62"/>
+        <f t="shared" si="68"/>
         <v>1</v>
       </c>
       <c r="F104" s="2">
-        <f t="shared" si="62"/>
+        <f t="shared" si="68"/>
         <v>-30</v>
       </c>
       <c r="G104" s="2">
-        <f t="shared" si="62"/>
+        <f t="shared" si="68"/>
         <v>-29</v>
       </c>
       <c r="H104" s="2">
-        <f t="shared" si="62"/>
+        <f t="shared" si="68"/>
         <v>-105</v>
       </c>
       <c r="I104" s="2">
-        <f t="shared" si="62"/>
+        <f t="shared" si="68"/>
         <v>-111</v>
       </c>
       <c r="J104" s="2">
-        <f t="shared" si="62"/>
+        <f t="shared" si="68"/>
         <v>-252</v>
       </c>
       <c r="K104" s="2">
-        <f t="shared" si="62"/>
+        <f t="shared" si="68"/>
         <v>-269</v>
       </c>
     </row>
@@ -9938,39 +11397,39 @@
         <v>4</v>
       </c>
       <c r="C105" s="2">
-        <f t="shared" ref="C105:K105" si="63">C71-B72</f>
+        <f t="shared" ref="C105:K105" si="69">C71-B72</f>
         <v>6</v>
       </c>
       <c r="D105" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="69"/>
         <v>-1</v>
       </c>
       <c r="E105" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="69"/>
         <v>9</v>
       </c>
       <c r="F105" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="69"/>
         <v>-98</v>
       </c>
       <c r="G105" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="69"/>
         <v>-144</v>
       </c>
       <c r="H105" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="69"/>
         <v>-571</v>
       </c>
       <c r="I105" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="69"/>
         <v>-797</v>
       </c>
       <c r="J105" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="69"/>
         <v>-1892</v>
       </c>
       <c r="K105" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="69"/>
         <v>-2486</v>
       </c>
     </row>
@@ -9979,39 +11438,39 @@
         <v>5</v>
       </c>
       <c r="C106" s="2">
-        <f t="shared" ref="C106:K106" si="64">C72-B73</f>
+        <f t="shared" ref="C106:K106" si="70">C72-B73</f>
         <v>10</v>
       </c>
       <c r="D106" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="70"/>
         <v>15</v>
       </c>
       <c r="E106" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="70"/>
         <v>43</v>
       </c>
       <c r="F106" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="70"/>
         <v>-274</v>
       </c>
       <c r="G106" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="70"/>
         <v>-732</v>
       </c>
       <c r="H106" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="70"/>
         <v>-2995</v>
       </c>
       <c r="I106" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="70"/>
         <v>-5771</v>
       </c>
       <c r="J106" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="70"/>
         <v>-13988</v>
       </c>
       <c r="K106" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="70"/>
         <v>-23074</v>
       </c>
     </row>
@@ -10020,39 +11479,39 @@
         <v>6</v>
       </c>
       <c r="C107" s="2">
-        <f t="shared" ref="C107:K107" si="65">C73-B74</f>
+        <f t="shared" ref="C107:K107" si="71">C73-B74</f>
         <v>16</v>
       </c>
       <c r="D107" s="2">
-        <f t="shared" si="65"/>
+        <f t="shared" si="71"/>
         <v>77</v>
       </c>
       <c r="E107" s="2">
-        <f t="shared" si="65"/>
+        <f t="shared" si="71"/>
         <v>209</v>
       </c>
       <c r="F107" s="2">
-        <f t="shared" si="65"/>
+        <f t="shared" si="71"/>
         <v>-614</v>
       </c>
       <c r="G107" s="2">
-        <f t="shared" si="65"/>
+        <f t="shared" si="71"/>
         <v>-3462</v>
       </c>
       <c r="H107" s="2">
-        <f t="shared" si="65"/>
+        <f t="shared" si="71"/>
         <v>-15681</v>
       </c>
       <c r="I107" s="2">
-        <f t="shared" si="65"/>
+        <f t="shared" si="71"/>
         <v>-40509</v>
       </c>
       <c r="J107" s="2">
-        <f t="shared" si="65"/>
+        <f t="shared" si="71"/>
         <v>-104428</v>
       </c>
       <c r="K107" s="2">
-        <f t="shared" si="65"/>
+        <f t="shared" si="71"/>
         <v>-209820</v>
       </c>
     </row>
@@ -10061,39 +11520,39 @@
         <v>7</v>
       </c>
       <c r="C108" s="2">
-        <f t="shared" ref="C108:K108" si="66">C74-B75</f>
+        <f t="shared" ref="C108:K108" si="72">C74-B75</f>
         <v>28</v>
       </c>
       <c r="D108" s="2">
-        <f t="shared" si="66"/>
+        <f t="shared" si="72"/>
         <v>279</v>
       </c>
       <c r="E108" s="2">
-        <f t="shared" si="66"/>
+        <f t="shared" si="72"/>
         <v>1031</v>
       </c>
       <c r="F108" s="2">
-        <f t="shared" si="66"/>
+        <f t="shared" si="72"/>
         <v>-554</v>
       </c>
       <c r="G108" s="2">
-        <f t="shared" si="66"/>
+        <f t="shared" si="72"/>
         <v>-14702</v>
       </c>
       <c r="H108" s="2">
-        <f t="shared" si="66"/>
+        <f t="shared" si="72"/>
         <v>-82491</v>
       </c>
       <c r="I108" s="2">
-        <f t="shared" si="66"/>
+        <f t="shared" si="72"/>
         <v>-274995</v>
       </c>
       <c r="J108" s="2">
-        <f t="shared" si="66"/>
+        <f t="shared" si="72"/>
         <v>-789844</v>
       </c>
       <c r="K108" s="2">
-        <f t="shared" si="66"/>
+        <f t="shared" si="72"/>
         <v>-1870200</v>
       </c>
     </row>
@@ -10102,39 +11561,39 @@
         <v>8</v>
       </c>
       <c r="C109" s="2">
-        <f t="shared" ref="C109:K109" si="67">C75-B76</f>
+        <f t="shared" ref="C109:K109" si="73">C75-B76</f>
         <v>56</v>
       </c>
       <c r="D109" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v>913</v>
       </c>
       <c r="E109" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v>4945</v>
       </c>
       <c r="F109" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v>6018</v>
       </c>
       <c r="G109" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v>-53302</v>
       </c>
       <c r="H109" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v>-429461</v>
       </c>
       <c r="I109" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v>-1817885</v>
       </c>
       <c r="J109" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v>-6007260</v>
       </c>
       <c r="K109" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v>-16450276</v>
       </c>
     </row>
@@ -10143,39 +11602,39 @@
         <v>9</v>
       </c>
       <c r="C110" s="2">
-        <f t="shared" ref="C110:K110" si="68">C76-B77</f>
+        <f t="shared" ref="C110:K110" si="74">C76-B77</f>
         <v>120</v>
       </c>
       <c r="D110" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="74"/>
         <v>2895</v>
       </c>
       <c r="E110" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="74"/>
         <v>22775</v>
       </c>
       <c r="F110" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="74"/>
         <v>63278</v>
       </c>
       <c r="G110" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="74"/>
         <v>-133362</v>
       </c>
       <c r="H110" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="74"/>
         <v>-2156899</v>
       </c>
       <c r="I110" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="74"/>
         <v>-11744819</v>
       </c>
       <c r="J110" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="74"/>
         <v>-45578532</v>
       </c>
       <c r="K110" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="74"/>
         <v>-143457980</v>
       </c>
     </row>
@@ -10184,39 +11643,39 @@
         <v>10</v>
       </c>
       <c r="C111" s="2">
-        <f t="shared" ref="C111:K111" si="69">C77-B78</f>
+        <f t="shared" ref="C111:K111" si="75">C77-B78</f>
         <v>256</v>
       </c>
       <c r="D111" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="75"/>
         <v>9049</v>
       </c>
       <c r="E111" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="75"/>
         <v>101041</v>
       </c>
       <c r="F111" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="75"/>
         <v>448026</v>
       </c>
       <c r="G111" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="75"/>
         <v>160282</v>
       </c>
       <c r="H111" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="75"/>
         <v>-10062909</v>
       </c>
       <c r="I111" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="75"/>
         <v>-74013117</v>
       </c>
       <c r="J111" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="75"/>
         <v>-343069612</v>
       </c>
       <c r="K111" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="75"/>
         <v>-1242501324</v>
       </c>
     </row>
@@ -10237,35 +11696,35 @@
         <v>0</v>
       </c>
       <c r="D114" s="2">
-        <f t="shared" ref="D114:K114" si="70">D80-C81</f>
+        <f t="shared" ref="D114:K114" si="76">D80-C81</f>
         <v>1</v>
       </c>
       <c r="E114" s="2">
-        <f t="shared" si="70"/>
+        <f t="shared" si="76"/>
         <v>-4</v>
       </c>
       <c r="F114" s="2">
-        <f t="shared" si="70"/>
+        <f t="shared" si="76"/>
         <v>-3</v>
       </c>
       <c r="G114" s="2">
-        <f t="shared" si="70"/>
+        <f t="shared" si="76"/>
         <v>-12</v>
       </c>
       <c r="H114" s="2">
-        <f t="shared" si="70"/>
+        <f t="shared" si="76"/>
         <v>-11</v>
       </c>
       <c r="I114" s="2">
-        <f t="shared" si="70"/>
+        <f t="shared" si="76"/>
         <v>-24</v>
       </c>
       <c r="J114" s="2">
-        <f t="shared" si="70"/>
+        <f t="shared" si="76"/>
         <v>-23</v>
       </c>
       <c r="K114" s="2">
-        <f t="shared" si="70"/>
+        <f t="shared" si="76"/>
         <v>-40</v>
       </c>
     </row>
@@ -10274,39 +11733,39 @@
         <v>3</v>
       </c>
       <c r="C115" s="2">
-        <f t="shared" ref="C115:K115" si="71">C81-B82</f>
+        <f t="shared" ref="C115:K115" si="77">C81-B82</f>
         <v>0</v>
       </c>
       <c r="D115" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="77"/>
         <v>4</v>
       </c>
       <c r="E115" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="77"/>
         <v>-12</v>
       </c>
       <c r="F115" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="77"/>
         <v>-9</v>
       </c>
       <c r="G115" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="77"/>
         <v>-60</v>
       </c>
       <c r="H115" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="77"/>
         <v>-62</v>
       </c>
       <c r="I115" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="77"/>
         <v>-168</v>
       </c>
       <c r="J115" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="77"/>
         <v>-179</v>
       </c>
       <c r="K115" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="77"/>
         <v>-360</v>
       </c>
     </row>
@@ -10315,39 +11774,39 @@
         <v>4</v>
       </c>
       <c r="C116" s="2">
-        <f t="shared" ref="C116:K116" si="72">C82-B83</f>
+        <f t="shared" ref="C116:K116" si="78">C82-B83</f>
         <v>1</v>
       </c>
       <c r="D116" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="78"/>
         <v>12</v>
       </c>
       <c r="E116" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="78"/>
         <v>-26</v>
       </c>
       <c r="F116" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="78"/>
         <v>-33</v>
       </c>
       <c r="G116" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="78"/>
         <v>-265</v>
       </c>
       <c r="H116" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="78"/>
         <v>-382</v>
       </c>
       <c r="I116" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="78"/>
         <v>-1092</v>
       </c>
       <c r="J116" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="78"/>
         <v>-1475</v>
       </c>
       <c r="K116" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="78"/>
         <v>-3075</v>
       </c>
     </row>
@@ -10356,39 +11815,39 @@
         <v>5</v>
       </c>
       <c r="C117" s="2">
-        <f t="shared" ref="C117:K117" si="73">C83-B84</f>
+        <f t="shared" ref="C117:K117" si="79">C83-B84</f>
         <v>5</v>
       </c>
       <c r="D117" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="79"/>
         <v>34</v>
       </c>
       <c r="E117" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="79"/>
         <v>-30</v>
       </c>
       <c r="F117" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="79"/>
         <v>-125</v>
       </c>
       <c r="G117" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="79"/>
         <v>-1097</v>
       </c>
       <c r="H117" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="79"/>
         <v>-2380</v>
       </c>
       <c r="I117" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="79"/>
         <v>-6940</v>
       </c>
       <c r="J117" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="79"/>
         <v>-12219</v>
       </c>
       <c r="K117" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="79"/>
         <v>-25975</v>
       </c>
     </row>
@@ -10397,39 +11856,39 @@
         <v>6</v>
       </c>
       <c r="C118" s="2">
-        <f t="shared" ref="C118:K118" si="74">C84-B85</f>
+        <f t="shared" ref="C118:K118" si="80">C84-B85</f>
         <v>15</v>
       </c>
       <c r="D118" s="2">
-        <f t="shared" si="74"/>
+        <f t="shared" si="80"/>
         <v>102</v>
       </c>
       <c r="E118" s="2">
-        <f t="shared" si="74"/>
+        <f t="shared" si="80"/>
         <v>86</v>
       </c>
       <c r="F118" s="2">
-        <f t="shared" si="74"/>
+        <f t="shared" si="80"/>
         <v>-357</v>
       </c>
       <c r="G118" s="2">
-        <f t="shared" si="74"/>
+        <f t="shared" si="80"/>
         <v>-4387</v>
       </c>
       <c r="H118" s="2">
-        <f t="shared" si="74"/>
+        <f t="shared" si="80"/>
         <v>-14168</v>
       </c>
       <c r="I118" s="2">
-        <f t="shared" si="74"/>
+        <f t="shared" si="80"/>
         <v>-44372</v>
       </c>
       <c r="J118" s="2">
-        <f t="shared" si="74"/>
+        <f t="shared" si="80"/>
         <v>-98667</v>
       </c>
       <c r="K118" s="2">
-        <f t="shared" si="74"/>
+        <f t="shared" si="80"/>
         <v>-221621</v>
       </c>
     </row>
@@ -10438,39 +11897,39 @@
         <v>7</v>
       </c>
       <c r="C119" s="2">
-        <f t="shared" ref="C119:K119" si="75">C85-B86</f>
+        <f t="shared" ref="C119:K119" si="81">C85-B86</f>
         <v>35</v>
       </c>
       <c r="D119" s="2">
-        <f t="shared" si="75"/>
+        <f t="shared" si="81"/>
         <v>322</v>
       </c>
       <c r="E119" s="2">
-        <f t="shared" si="75"/>
+        <f t="shared" si="81"/>
         <v>878</v>
       </c>
       <c r="F119" s="2">
-        <f t="shared" si="75"/>
+        <f t="shared" si="81"/>
         <v>-205</v>
       </c>
       <c r="G119" s="2">
-        <f t="shared" si="75"/>
+        <f t="shared" si="81"/>
         <v>-16767</v>
       </c>
       <c r="H119" s="2">
-        <f t="shared" si="75"/>
+        <f t="shared" si="81"/>
         <v>-79796</v>
       </c>
       <c r="I119" s="2">
-        <f t="shared" si="75"/>
+        <f t="shared" si="81"/>
         <v>-286404</v>
       </c>
       <c r="J119" s="2">
-        <f t="shared" si="75"/>
+        <f t="shared" si="81"/>
         <v>-775867</v>
       </c>
       <c r="K119" s="2">
-        <f t="shared" si="75"/>
+        <f t="shared" si="81"/>
         <v>-1912769</v>
       </c>
     </row>
@@ -10479,39 +11938,39 @@
         <v>8</v>
       </c>
       <c r="C120" s="2">
-        <f t="shared" ref="C120:K120" si="76">C86-B87</f>
+        <f t="shared" ref="C120:K120" si="82">C86-B87</f>
         <v>71</v>
       </c>
       <c r="D120" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="82"/>
         <v>1018</v>
       </c>
       <c r="E120" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="82"/>
         <v>4878</v>
       </c>
       <c r="F120" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="82"/>
         <v>6571</v>
       </c>
       <c r="G120" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="82"/>
         <v>-57387</v>
       </c>
       <c r="H120" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="82"/>
         <v>-426612</v>
       </c>
       <c r="I120" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="82"/>
         <v>-1849764</v>
       </c>
       <c r="J120" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="82"/>
         <v>-5986987</v>
       </c>
       <c r="K120" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="82"/>
         <v>-16596445</v>
       </c>
     </row>
@@ -10520,39 +11979,39 @@
         <v>9</v>
       </c>
       <c r="C121" s="2">
-        <f t="shared" ref="C121:K121" si="77">C87-B88</f>
+        <f t="shared" ref="C121:K121" si="83">C87-B88</f>
         <v>135</v>
       </c>
       <c r="D121" s="2">
-        <f t="shared" si="77"/>
+        <f t="shared" si="83"/>
         <v>3154</v>
       </c>
       <c r="E121" s="2">
-        <f t="shared" si="77"/>
+        <f t="shared" si="83"/>
         <v>23078</v>
       </c>
       <c r="F121" s="2">
-        <f t="shared" si="77"/>
+        <f t="shared" si="83"/>
         <v>65203</v>
       </c>
       <c r="G121" s="2">
-        <f t="shared" si="77"/>
+        <f t="shared" si="83"/>
         <v>-140147</v>
       </c>
       <c r="H121" s="2">
-        <f t="shared" si="77"/>
+        <f t="shared" si="83"/>
         <v>-2155996</v>
       </c>
       <c r="I121" s="2">
-        <f t="shared" si="77"/>
+        <f t="shared" si="83"/>
         <v>-11831572</v>
       </c>
       <c r="J121" s="2">
-        <f t="shared" si="77"/>
+        <f t="shared" si="83"/>
         <v>-45592475</v>
       </c>
       <c r="K121" s="2">
-        <f t="shared" si="77"/>
+        <f t="shared" si="83"/>
         <v>-143962509</v>
       </c>
     </row>
@@ -10561,39 +12020,39 @@
         <v>10</v>
       </c>
       <c r="C122" s="2">
-        <f t="shared" ref="C122:K122" si="78">C88-B89</f>
+        <f t="shared" ref="C122:K122" si="84">C88-B89</f>
         <v>255</v>
       </c>
       <c r="D122" s="2">
-        <f t="shared" si="78"/>
+        <f t="shared" si="84"/>
         <v>9610</v>
       </c>
       <c r="E122" s="2">
-        <f t="shared" si="78"/>
+        <f t="shared" si="84"/>
         <v>102054</v>
       </c>
       <c r="F122" s="2">
-        <f t="shared" si="78"/>
+        <f t="shared" si="84"/>
         <v>456523</v>
       </c>
       <c r="G122" s="2">
-        <f t="shared" si="78"/>
+        <f t="shared" si="84"/>
         <v>151789</v>
       </c>
       <c r="H122" s="2">
-        <f t="shared" si="78"/>
+        <f t="shared" si="84"/>
         <v>-10049660</v>
       </c>
       <c r="I122" s="2">
-        <f t="shared" si="78"/>
+        <f t="shared" si="84"/>
         <v>-74244404</v>
       </c>
       <c r="J122" s="2">
-        <f t="shared" si="78"/>
+        <f t="shared" si="84"/>
         <v>-343251723</v>
       </c>
       <c r="K122" s="2">
-        <f t="shared" si="78"/>
+        <f t="shared" si="84"/>
         <v>-1244283077</v>
       </c>
     </row>
@@ -10610,39 +12069,39 @@
         <v>2</v>
       </c>
       <c r="C125" s="2">
-        <f>C70-C69-B81</f>
+        <f t="shared" ref="C125:K125" si="85">C70-C69-B81</f>
         <v>1</v>
       </c>
       <c r="D125" s="2">
-        <f>D70-D69-C81</f>
+        <f t="shared" si="85"/>
         <v>1</v>
       </c>
       <c r="E125" s="2">
-        <f>E70-E69-D81</f>
+        <f t="shared" si="85"/>
         <v>2</v>
       </c>
       <c r="F125" s="2">
-        <f>F70-F69-E81</f>
+        <f t="shared" si="85"/>
         <v>2</v>
       </c>
       <c r="G125" s="2">
-        <f>G70-G69-F81</f>
+        <f t="shared" si="85"/>
         <v>3</v>
       </c>
       <c r="H125" s="2">
-        <f>H70-H69-G81</f>
+        <f t="shared" si="85"/>
         <v>3</v>
       </c>
       <c r="I125" s="2">
-        <f>I70-I69-H81</f>
+        <f t="shared" si="85"/>
         <v>4</v>
       </c>
       <c r="J125" s="2">
-        <f>J70-J69-I81</f>
+        <f t="shared" si="85"/>
         <v>4</v>
       </c>
       <c r="K125" s="2">
-        <f>K70-K69-J81</f>
+        <f t="shared" si="85"/>
         <v>5</v>
       </c>
     </row>
@@ -10651,39 +12110,39 @@
         <v>3</v>
       </c>
       <c r="C126" s="2">
-        <f>C71-C70-B82</f>
+        <f t="shared" ref="C126:K126" si="86">C71-C70-B82</f>
         <v>2</v>
       </c>
       <c r="D126" s="2">
-        <f>D71-D70-C82</f>
+        <f t="shared" si="86"/>
         <v>4</v>
       </c>
       <c r="E126" s="2">
-        <f>E71-E70-D82</f>
+        <f t="shared" si="86"/>
         <v>12</v>
       </c>
       <c r="F126" s="2">
-        <f>F71-F70-E82</f>
+        <f t="shared" si="86"/>
         <v>16</v>
       </c>
       <c r="G126" s="2">
-        <f>G71-G70-F82</f>
+        <f t="shared" si="86"/>
         <v>30</v>
       </c>
       <c r="H126" s="2">
-        <f>H71-H70-G82</f>
+        <f t="shared" si="86"/>
         <v>36</v>
       </c>
       <c r="I126" s="2">
-        <f>I71-I70-H82</f>
+        <f t="shared" si="86"/>
         <v>56</v>
       </c>
       <c r="J126" s="2">
-        <f>J71-J70-I82</f>
+        <f t="shared" si="86"/>
         <v>64</v>
       </c>
       <c r="K126" s="2">
-        <f>K71-K70-J82</f>
+        <f t="shared" si="86"/>
         <v>90</v>
       </c>
     </row>
@@ -10692,39 +12151,39 @@
         <v>4</v>
       </c>
       <c r="C127" s="2">
-        <f>C72-C71-B83</f>
+        <f t="shared" ref="C127:K127" si="87">C72-C71-B83</f>
         <v>3</v>
       </c>
       <c r="D127" s="2">
-        <f>D72-D71-C83</f>
+        <f t="shared" si="87"/>
         <v>16</v>
       </c>
       <c r="E127" s="2">
-        <f>E72-E71-D83</f>
+        <f t="shared" si="87"/>
         <v>58</v>
       </c>
       <c r="F127" s="2">
-        <f>F72-F71-E83</f>
+        <f t="shared" si="87"/>
         <v>112</v>
       </c>
       <c r="G127" s="2">
-        <f>G72-G71-F83</f>
+        <f t="shared" si="87"/>
         <v>237</v>
       </c>
       <c r="H127" s="2">
-        <f>H72-H71-G83</f>
+        <f t="shared" si="87"/>
         <v>360</v>
       </c>
       <c r="I127" s="2">
-        <f>I72-I71-H83</f>
+        <f t="shared" si="87"/>
         <v>612</v>
       </c>
       <c r="J127" s="2">
-        <f>J72-J71-I83</f>
+        <f t="shared" si="87"/>
         <v>832</v>
       </c>
       <c r="K127" s="2">
-        <f>K72-K71-J83</f>
+        <f t="shared" si="87"/>
         <v>1255</v>
       </c>
     </row>
@@ -10733,39 +12192,39 @@
         <v>5</v>
       </c>
       <c r="C128" s="2">
-        <f>C73-C72-B84</f>
+        <f t="shared" ref="C128:K128" si="88">C73-C72-B84</f>
         <v>5</v>
       </c>
       <c r="D128" s="2">
-        <f>D73-D72-C84</f>
+        <f t="shared" si="88"/>
         <v>58</v>
       </c>
       <c r="E128" s="2">
-        <f>E73-E72-D84</f>
+        <f t="shared" si="88"/>
         <v>258</v>
       </c>
       <c r="F128" s="2">
-        <f>F73-F72-E84</f>
+        <f t="shared" si="88"/>
         <v>700</v>
       </c>
       <c r="G128" s="2">
-        <f>G73-G72-F84</f>
+        <f t="shared" si="88"/>
         <v>1687</v>
       </c>
       <c r="H128" s="2">
-        <f>H73-H72-G84</f>
+        <f t="shared" si="88"/>
         <v>3206</v>
       </c>
       <c r="I128" s="2">
-        <f>I73-I72-H84</f>
+        <f t="shared" si="88"/>
         <v>5988</v>
       </c>
       <c r="J128" s="2">
-        <f>J73-J72-I84</f>
+        <f t="shared" si="88"/>
         <v>9624</v>
       </c>
       <c r="K128" s="2">
-        <f>K73-K72-J84</f>
+        <f t="shared" si="88"/>
         <v>15625</v>
       </c>
     </row>
@@ -10774,39 +12233,39 @@
         <v>6</v>
       </c>
       <c r="C129" s="2">
-        <f>C74-C73-B85</f>
+        <f t="shared" ref="C129:K129" si="89">C74-C73-B85</f>
         <v>11</v>
       </c>
       <c r="D129" s="2">
-        <f>D74-D73-C85</f>
+        <f t="shared" si="89"/>
         <v>194</v>
       </c>
       <c r="E129" s="2">
-        <f>E74-E73-D85</f>
+        <f t="shared" si="89"/>
         <v>1126</v>
       </c>
       <c r="F129" s="2">
-        <f>F74-F73-E85</f>
+        <f t="shared" si="89"/>
         <v>4060</v>
       </c>
       <c r="G129" s="2">
-        <f>G74-G73-F85</f>
+        <f t="shared" si="89"/>
         <v>11505</v>
       </c>
       <c r="H129" s="2">
-        <f>H74-H73-G85</f>
+        <f t="shared" si="89"/>
         <v>26558</v>
       </c>
       <c r="I129" s="2">
-        <f>I74-I73-H85</f>
+        <f t="shared" si="89"/>
         <v>55692</v>
       </c>
       <c r="J129" s="2">
-        <f>J74-J73-I85</f>
+        <f t="shared" si="89"/>
         <v>103704</v>
       </c>
       <c r="K129" s="2">
-        <f>K74-K73-J85</f>
+        <f t="shared" si="89"/>
         <v>184215</v>
       </c>
     </row>
@@ -10815,39 +12274,39 @@
         <v>7</v>
       </c>
       <c r="C130" s="2">
-        <f>C75-C74-B86</f>
+        <f t="shared" ref="C130:K130" si="90">C75-C74-B86</f>
         <v>27</v>
       </c>
       <c r="D130" s="2">
-        <f>D75-D74-C86</f>
+        <f t="shared" si="90"/>
         <v>626</v>
       </c>
       <c r="E130" s="2">
-        <f>E75-E74-D86</f>
+        <f t="shared" si="90"/>
         <v>4878</v>
       </c>
       <c r="F130" s="2">
-        <f>F75-F74-E86</f>
+        <f t="shared" si="90"/>
         <v>22540</v>
       </c>
       <c r="G130" s="2">
-        <f>G75-G74-F86</f>
+        <f t="shared" si="90"/>
         <v>76601</v>
       </c>
       <c r="H130" s="2">
-        <f>H75-H74-G86</f>
+        <f t="shared" si="90"/>
         <v>210382</v>
       </c>
       <c r="I130" s="2">
-        <f>I75-I74-H86</f>
+        <f t="shared" si="90"/>
         <v>502716</v>
       </c>
       <c r="J130" s="2">
-        <f>J75-J74-I86</f>
+        <f t="shared" si="90"/>
         <v>1068728</v>
       </c>
       <c r="K130" s="2">
-        <f>K75-K74-J86</f>
+        <f t="shared" si="90"/>
         <v>2101751</v>
       </c>
     </row>
@@ -10856,39 +12315,39 @@
         <v>8</v>
       </c>
       <c r="C131" s="2">
-        <f>C76-C75-B87</f>
+        <f t="shared" ref="C131:K131" si="91">C76-C75-B87</f>
         <v>63</v>
       </c>
       <c r="D131" s="2">
-        <f>D76-D75-C87</f>
+        <f t="shared" si="91"/>
         <v>1982</v>
       </c>
       <c r="E131" s="2">
-        <f>E76-E75-D87</f>
+        <f t="shared" si="91"/>
         <v>20846</v>
       </c>
       <c r="F131" s="2">
-        <f>F76-F75-E87</f>
+        <f t="shared" si="91"/>
         <v>121772</v>
       </c>
       <c r="G131" s="2">
-        <f>G76-G75-F87</f>
+        <f t="shared" si="91"/>
         <v>499965</v>
       </c>
       <c r="H131" s="2">
-        <f>H76-H75-G87</f>
+        <f t="shared" si="91"/>
         <v>1618994</v>
       </c>
       <c r="I131" s="2">
-        <f>I76-I75-H87</f>
+        <f t="shared" si="91"/>
         <v>4436380</v>
       </c>
       <c r="J131" s="2">
-        <f>J76-J75-I87</f>
+        <f t="shared" si="91"/>
         <v>10694840</v>
       </c>
       <c r="K131" s="2">
-        <f>K76-K75-J87</f>
+        <f t="shared" si="91"/>
         <v>23409467</v>
       </c>
     </row>
@@ -10897,39 +12356,39 @@
         <v>9</v>
       </c>
       <c r="C132" s="2">
-        <f>C77-C76-B88</f>
+        <f t="shared" ref="C132:K132" si="92">C77-C76-B88</f>
         <v>135</v>
       </c>
       <c r="D132" s="2">
-        <f>D77-D76-C88</f>
+        <f t="shared" si="92"/>
         <v>6170</v>
       </c>
       <c r="E132" s="2">
-        <f>E77-E76-D88</f>
+        <f t="shared" si="92"/>
         <v>87590</v>
       </c>
       <c r="F132" s="2">
-        <f>F77-F76-E88</f>
+        <f t="shared" si="92"/>
         <v>645228</v>
       </c>
       <c r="G132" s="2">
-        <f>G77-G76-F88</f>
+        <f t="shared" si="92"/>
         <v>3206285</v>
       </c>
       <c r="H132" s="2">
-        <f>H77-H76-G88</f>
+        <f t="shared" si="92"/>
         <v>12207318</v>
       </c>
       <c r="I132" s="2">
-        <f>I77-I76-H88</f>
+        <f t="shared" si="92"/>
         <v>38434540</v>
       </c>
       <c r="J132" s="2">
-        <f>J77-J76-I88</f>
+        <f t="shared" si="92"/>
         <v>104824696</v>
       </c>
       <c r="K132" s="2">
-        <f>K77-K76-J88</f>
+        <f t="shared" si="92"/>
         <v>255835251</v>
       </c>
     </row>
@@ -10938,39 +12397,39 @@
         <v>10</v>
       </c>
       <c r="C133" s="2">
-        <f>C78-C77-B89</f>
+        <f t="shared" ref="C133:K133" si="93">C78-C77-B89</f>
         <v>271</v>
       </c>
       <c r="D133" s="2">
-        <f>D78-D77-C89</f>
+        <f t="shared" si="93"/>
         <v>18934</v>
       </c>
       <c r="E133" s="2">
-        <f>E78-E77-D89</f>
+        <f t="shared" si="93"/>
         <v>362534</v>
       </c>
       <c r="F133" s="2">
-        <f>F78-F77-E89</f>
+        <f t="shared" si="93"/>
         <v>3369164</v>
       </c>
       <c r="G133" s="2">
-        <f>G78-G77-F89</f>
+        <f t="shared" si="93"/>
         <v>20265117</v>
       </c>
       <c r="H133" s="2">
-        <f>H78-H77-G89</f>
+        <f t="shared" si="93"/>
         <v>90653178</v>
       </c>
       <c r="I133" s="2">
-        <f>I78-I77-H89</f>
+        <f t="shared" si="93"/>
         <v>328071372</v>
       </c>
       <c r="J133" s="2">
-        <f>J78-J77-I89</f>
+        <f t="shared" si="93"/>
         <v>1011626872</v>
       </c>
       <c r="K133" s="2">
-        <f>K78-K77-J89</f>
+        <f t="shared" si="93"/>
         <v>2754138379</v>
       </c>
     </row>
@@ -11687,8 +13146,14 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="7">
+    <mergeCell ref="X68:AA68"/>
+    <mergeCell ref="P13:S13"/>
+    <mergeCell ref="T13:W13"/>
+    <mergeCell ref="X13:AA13"/>
     <mergeCell ref="B1:K1"/>
+    <mergeCell ref="P68:S68"/>
+    <mergeCell ref="T68:W68"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="P5" r:id="rId1"/>
@@ -11706,7 +13171,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A21" sqref="A21"/>
+      <selection pane="bottomRight" activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13664,7 +15129,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
+      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20611,7 +22076,7 @@
   <dimension ref="A1:K130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A114" activePane="bottomLeft" state="frozenSplit"/>
+      <pane ySplit="2" topLeftCell="A36" activePane="bottomLeft" state="frozenSplit"/>
       <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
